--- a/capiq_data/in_process_data/IQ191564.xlsx
+++ b/capiq_data/in_process_data/IQ191564.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE204B43-FE1E-4176-8298-F7BE3849C84A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35637142-121F-49BD-8FD9-BDB76A25AE95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"82876ec1-0844-4d9c-ad5c-a36920b3b4e8"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"7c96163c-8392-48e5-aa9b-ebe5eea5c29a"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
   </si>
   <si>
     <t>FQ12011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,120 +853,120 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40544</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>1302</v>
+        <v>-36</v>
       </c>
       <c r="D2">
-        <v>10716</v>
+        <v>7433</v>
       </c>
       <c r="E2">
-        <v>7028</v>
+        <v>4381</v>
       </c>
       <c r="F2">
-        <v>1940</v>
+        <v>1150</v>
       </c>
       <c r="G2">
-        <v>13994</v>
+        <v>8911</v>
       </c>
       <c r="H2">
-        <v>70950</v>
+        <v>45802</v>
       </c>
       <c r="I2">
-        <v>7002</v>
+        <v>5495</v>
       </c>
       <c r="J2">
-        <v>9950</v>
+        <v>8341</v>
       </c>
       <c r="K2">
-        <v>1686</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>-42</v>
+        <v>-355</v>
       </c>
       <c r="N2">
-        <v>12747</v>
+        <v>8167</v>
       </c>
       <c r="O2">
-        <v>31211</v>
+        <v>21948</v>
       </c>
       <c r="P2">
-        <v>12772</v>
+        <v>10315</v>
       </c>
       <c r="Q2">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="R2">
-        <v>40544</v>
+        <v>36891</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>39739</v>
+        <v>23854</v>
       </c>
       <c r="U2">
-        <v>3039</v>
+        <v>1200</v>
       </c>
       <c r="V2">
-        <v>1119</v>
+        <v>467</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>-438</v>
       </c>
       <c r="X2">
-        <v>99</v>
+        <v>214</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AA2">
-        <v>1302</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40635</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>942</v>
+        <v>-567</v>
       </c>
       <c r="D3">
-        <v>9077</v>
+        <v>5993</v>
       </c>
       <c r="E3">
-        <v>6075</v>
+        <v>3974</v>
       </c>
       <c r="F3">
-        <v>1528</v>
+        <v>916</v>
       </c>
       <c r="G3">
-        <v>13220</v>
+        <v>8111</v>
       </c>
       <c r="H3">
-        <v>70588</v>
+        <v>44457</v>
       </c>
       <c r="I3">
-        <v>4959</v>
+        <v>4813</v>
       </c>
       <c r="J3">
-        <v>8688</v>
+        <v>9661</v>
       </c>
       <c r="K3">
-        <v>1660</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -855,81 +975,81 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12803</v>
+        <v>5904</v>
       </c>
       <c r="O3">
-        <v>30276</v>
+        <v>21047</v>
       </c>
       <c r="P3">
-        <v>12772</v>
+        <v>9836</v>
       </c>
       <c r="Q3">
-        <v>55</v>
+        <v>-537</v>
       </c>
       <c r="R3">
-        <v>40635</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>40312</v>
+        <v>23410</v>
       </c>
       <c r="U3">
-        <v>3094</v>
+        <v>663</v>
       </c>
       <c r="V3">
-        <v>1949</v>
+        <v>818</v>
       </c>
       <c r="W3">
-        <v>-756</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>-1306</v>
+        <v>-473</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>-49</v>
       </c>
       <c r="AA3">
-        <v>942</v>
+        <v>-567</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40726</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>1476</v>
+        <v>392</v>
       </c>
       <c r="D4">
-        <v>10675</v>
+        <v>5960</v>
       </c>
       <c r="E4">
-        <v>6212</v>
+        <v>3683</v>
       </c>
       <c r="F4">
-        <v>2446</v>
+        <v>1028</v>
       </c>
       <c r="G4">
-        <v>13643</v>
+        <v>9464</v>
       </c>
       <c r="H4">
-        <v>71105</v>
+        <v>45872</v>
       </c>
       <c r="I4">
-        <v>5403</v>
+        <v>4668</v>
       </c>
       <c r="J4">
-        <v>9176</v>
+        <v>10482</v>
       </c>
       <c r="K4">
-        <v>1810</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12766</v>
+        <v>5975</v>
       </c>
       <c r="O4">
-        <v>30183</v>
+        <v>22036</v>
       </c>
       <c r="P4">
-        <v>13238</v>
+        <v>10936</v>
       </c>
       <c r="Q4">
-        <v>425</v>
+        <v>1785</v>
       </c>
       <c r="R4">
-        <v>40726</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>40922</v>
+        <v>23836</v>
       </c>
       <c r="U4">
-        <v>3519</v>
+        <v>2448</v>
       </c>
       <c r="V4">
-        <v>1822</v>
+        <v>867</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-825</v>
+        <v>1184</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="AA4">
-        <v>1476</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40817</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>1087</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>10425</v>
+        <v>5786</v>
       </c>
       <c r="E5">
-        <v>5686</v>
+        <v>2939</v>
       </c>
       <c r="F5">
-        <v>1870</v>
+        <v>505</v>
       </c>
       <c r="G5">
-        <v>13757</v>
+        <v>6605</v>
       </c>
       <c r="H5">
-        <v>72124</v>
+        <v>43810</v>
       </c>
       <c r="I5">
-        <v>4546</v>
+        <v>3694</v>
       </c>
       <c r="J5">
-        <v>10922</v>
+        <v>8940</v>
       </c>
       <c r="K5">
-        <v>1583</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,164 +1141,164 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12088</v>
+        <v>6020</v>
       </c>
       <c r="O5">
-        <v>32671</v>
+        <v>20756</v>
       </c>
       <c r="P5">
-        <v>14265</v>
+        <v>10112</v>
       </c>
       <c r="Q5">
-        <v>-334</v>
+        <v>-1830</v>
       </c>
       <c r="R5">
-        <v>40817</v>
+        <v>37164</v>
       </c>
       <c r="S5">
-        <v>156000</v>
+        <v>114000</v>
       </c>
       <c r="T5">
-        <v>39453</v>
+        <v>23054</v>
       </c>
       <c r="U5">
-        <v>3185</v>
+        <v>618</v>
       </c>
       <c r="V5">
-        <v>2104</v>
+        <v>896</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-1201</v>
+        <v>-2182</v>
       </c>
       <c r="Y5">
-        <v>288</v>
+        <v>343</v>
       </c>
       <c r="Z5">
         <v>5</v>
       </c>
       <c r="AA5">
-        <v>1087</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>1464</v>
+        <v>438</v>
       </c>
       <c r="D6">
-        <v>10779</v>
+        <v>7016</v>
       </c>
       <c r="E6">
-        <v>6787</v>
+        <v>4606</v>
       </c>
       <c r="F6">
-        <v>2192</v>
+        <v>649</v>
       </c>
       <c r="G6">
-        <v>15060</v>
+        <v>9265</v>
       </c>
       <c r="H6">
-        <v>73877</v>
+        <v>50462</v>
       </c>
       <c r="I6">
-        <v>7671</v>
+        <v>5373</v>
       </c>
       <c r="J6">
-        <v>11226</v>
+        <v>14987</v>
       </c>
       <c r="K6">
-        <v>607</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>-976</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>-49</v>
+        <v>-1024</v>
       </c>
       <c r="N6">
-        <v>13524</v>
+        <v>6856</v>
       </c>
       <c r="O6">
-        <v>34454</v>
+        <v>27240</v>
       </c>
       <c r="P6">
-        <v>14386</v>
+        <v>15767</v>
       </c>
       <c r="Q6">
-        <v>581</v>
+        <v>227</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>39423</v>
+        <v>23222</v>
       </c>
       <c r="U6">
-        <v>3766</v>
+        <v>845</v>
       </c>
       <c r="V6">
-        <v>1734</v>
+        <v>-579</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>-428</v>
       </c>
       <c r="X6">
-        <v>-130</v>
+        <v>3346</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="AA6">
-        <v>1464</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>1143</v>
+        <v>259</v>
       </c>
       <c r="D7">
-        <v>9629</v>
+        <v>5856</v>
       </c>
       <c r="E7">
-        <v>6283</v>
+        <v>4006</v>
       </c>
       <c r="F7">
-        <v>1687</v>
+        <v>605</v>
       </c>
       <c r="G7">
-        <v>14537</v>
+        <v>9540</v>
       </c>
       <c r="H7">
-        <v>75233</v>
+        <v>50480</v>
       </c>
       <c r="I7">
-        <v>5859</v>
+        <v>4811</v>
       </c>
       <c r="J7">
-        <v>12582</v>
+        <v>14765</v>
       </c>
       <c r="K7">
-        <v>1873</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1187,81 +1307,81 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12724</v>
+        <v>6607</v>
       </c>
       <c r="O7">
-        <v>35321</v>
+        <v>26959</v>
       </c>
       <c r="P7">
-        <v>16029</v>
+        <v>15632</v>
       </c>
       <c r="Q7">
-        <v>-35</v>
+        <v>1024</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>39912</v>
+        <v>23521</v>
       </c>
       <c r="U7">
-        <v>3731</v>
+        <v>1869</v>
       </c>
       <c r="V7">
-        <v>1812</v>
+        <v>1259</v>
       </c>
       <c r="W7">
-        <v>-1076</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-96</v>
+        <v>-44</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA7">
-        <v>1143</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>1831</v>
+        <v>364</v>
       </c>
       <c r="D8">
-        <v>11088</v>
+        <v>5795</v>
       </c>
       <c r="E8">
-        <v>5951</v>
+        <v>3637</v>
       </c>
       <c r="F8">
-        <v>2960</v>
+        <v>752</v>
       </c>
       <c r="G8">
-        <v>14754</v>
+        <v>8892</v>
       </c>
       <c r="H8">
-        <v>75291</v>
+        <v>50223</v>
       </c>
       <c r="I8">
-        <v>5504</v>
+        <v>4916</v>
       </c>
       <c r="J8">
-        <v>12454</v>
+        <v>14664</v>
       </c>
       <c r="K8">
-        <v>1025</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,37 +1390,37 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11117</v>
+        <v>6468</v>
       </c>
       <c r="O8">
-        <v>33218</v>
+        <v>26493</v>
       </c>
       <c r="P8">
-        <v>15023</v>
+        <v>15249</v>
       </c>
       <c r="Q8">
-        <v>643</v>
+        <v>327</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>42073</v>
+        <v>23730</v>
       </c>
       <c r="U8">
-        <v>4374</v>
+        <v>2196</v>
       </c>
       <c r="V8">
-        <v>2885</v>
+        <v>865</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-1454</v>
+        <v>-464</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -1309,42 +1429,42 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>1831</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41181</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>1244</v>
+        <v>175</v>
       </c>
       <c r="D9">
-        <v>10782</v>
+        <v>6662</v>
       </c>
       <c r="E9">
-        <v>6152</v>
+        <v>3717</v>
       </c>
       <c r="F9">
-        <v>2034</v>
+        <v>497</v>
       </c>
       <c r="G9">
-        <v>13709</v>
+        <v>7849</v>
       </c>
       <c r="H9">
-        <v>74898</v>
+        <v>50045</v>
       </c>
       <c r="I9">
-        <v>4619</v>
+        <v>3987</v>
       </c>
       <c r="J9">
-        <v>10697</v>
+        <v>12467</v>
       </c>
       <c r="K9">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,164 +1473,164 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12813</v>
+        <v>7819</v>
       </c>
       <c r="O9">
-        <v>32940</v>
+        <v>26166</v>
       </c>
       <c r="P9">
-        <v>14595</v>
+        <v>14488</v>
       </c>
       <c r="Q9">
-        <v>-987</v>
+        <v>-957</v>
       </c>
       <c r="R9">
-        <v>41181</v>
+        <v>37529</v>
       </c>
       <c r="S9">
-        <v>166000</v>
+        <v>112000</v>
       </c>
       <c r="T9">
-        <v>41958</v>
+        <v>23879</v>
       </c>
       <c r="U9">
-        <v>3387</v>
+        <v>1239</v>
       </c>
       <c r="V9">
-        <v>1535</v>
+        <v>741</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-1305</v>
+        <v>-1327</v>
       </c>
       <c r="Y9">
-        <v>284</v>
+        <v>358</v>
       </c>
       <c r="Z9">
-        <v>15</v>
+        <v>-3</v>
       </c>
       <c r="AA9">
-        <v>1244</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41272</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>1382</v>
+        <v>36</v>
       </c>
       <c r="D10">
-        <v>11341</v>
+        <v>7170</v>
       </c>
       <c r="E10">
-        <v>7315</v>
+        <v>4765</v>
       </c>
       <c r="F10">
-        <v>2092</v>
+        <v>375</v>
       </c>
       <c r="G10">
-        <v>14322</v>
+        <v>8734</v>
       </c>
       <c r="H10">
-        <v>80642</v>
+        <v>50876</v>
       </c>
       <c r="I10">
-        <v>6737</v>
+        <v>5675</v>
       </c>
       <c r="J10">
-        <v>12633</v>
+        <v>13079</v>
       </c>
       <c r="K10">
-        <v>3044</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>-776</v>
+        <v>-943</v>
       </c>
       <c r="N10">
-        <v>14498</v>
+        <v>8331</v>
       </c>
       <c r="O10">
-        <v>37272</v>
+        <v>27132</v>
       </c>
       <c r="P10">
-        <v>17448</v>
+        <v>14899</v>
       </c>
       <c r="Q10">
-        <v>-180</v>
+        <v>141</v>
       </c>
       <c r="R10">
-        <v>41272</v>
+        <v>37621</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>43370</v>
+        <v>23744</v>
       </c>
       <c r="U10">
-        <v>3207</v>
+        <v>1380</v>
       </c>
       <c r="V10">
-        <v>1144</v>
+        <v>-414</v>
       </c>
       <c r="W10">
-        <v>-1300</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>1136</v>
+        <v>742</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>340</v>
+        <v>29</v>
       </c>
       <c r="AA10">
-        <v>1382</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41363</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>1513</v>
+        <v>314</v>
       </c>
       <c r="D11">
-        <v>10554</v>
+        <v>6500</v>
       </c>
       <c r="E11">
-        <v>7154</v>
+        <v>4382</v>
       </c>
       <c r="F11">
-        <v>2195</v>
+        <v>714</v>
       </c>
       <c r="G11">
-        <v>15003</v>
+        <v>8665</v>
       </c>
       <c r="H11">
-        <v>81358</v>
+        <v>50756</v>
       </c>
       <c r="I11">
-        <v>6308</v>
+        <v>4952</v>
       </c>
       <c r="J11">
-        <v>13381</v>
+        <v>12932</v>
       </c>
       <c r="K11">
-        <v>1805</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1519,81 +1639,81 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>13453</v>
+        <v>7904</v>
       </c>
       <c r="O11">
-        <v>37214</v>
+        <v>26755</v>
       </c>
       <c r="P11">
-        <v>16937</v>
+        <v>14713</v>
       </c>
       <c r="Q11">
-        <v>745</v>
+        <v>372</v>
       </c>
       <c r="R11">
-        <v>41363</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>44144</v>
+        <v>24001</v>
       </c>
       <c r="U11">
-        <v>3952</v>
+        <v>1752</v>
       </c>
       <c r="V11">
-        <v>2160</v>
+        <v>1343</v>
       </c>
       <c r="W11">
-        <v>-24</v>
+        <v>-429</v>
       </c>
       <c r="X11">
-        <v>-826</v>
+        <v>-688</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>10</v>
+        <v>-29</v>
       </c>
       <c r="AA11">
-        <v>1513</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41454</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>1847</v>
+        <v>502</v>
       </c>
       <c r="D12">
-        <v>11578</v>
+        <v>6377</v>
       </c>
       <c r="E12">
-        <v>6568</v>
+        <v>4171</v>
       </c>
       <c r="F12">
-        <v>3004</v>
+        <v>946</v>
       </c>
       <c r="G12">
-        <v>14205</v>
+        <v>7968</v>
       </c>
       <c r="H12">
-        <v>80565</v>
+        <v>50006</v>
       </c>
       <c r="I12">
-        <v>5578</v>
+        <v>4509</v>
       </c>
       <c r="J12">
-        <v>12784</v>
+        <v>12056</v>
       </c>
       <c r="K12">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11341</v>
+        <v>7513</v>
       </c>
       <c r="O12">
-        <v>34658</v>
+        <v>25686</v>
       </c>
       <c r="P12">
-        <v>15003</v>
+        <v>13911</v>
       </c>
       <c r="Q12">
-        <v>-20</v>
+        <v>-382</v>
       </c>
       <c r="R12">
-        <v>41454</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>45907</v>
+        <v>24320</v>
       </c>
       <c r="U12">
-        <v>3932</v>
+        <v>1370</v>
       </c>
       <c r="V12">
-        <v>3413</v>
+        <v>646</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-2746</v>
+        <v>-790</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>1847</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41545</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>1394</v>
+        <v>415</v>
       </c>
       <c r="D13">
-        <v>11568</v>
+        <v>7014</v>
       </c>
       <c r="E13">
-        <v>6539</v>
+        <v>3849</v>
       </c>
       <c r="F13">
-        <v>12816</v>
+        <v>678</v>
       </c>
       <c r="G13">
-        <v>14109</v>
+        <v>8314</v>
       </c>
       <c r="H13">
-        <v>81241</v>
+        <v>49988</v>
       </c>
       <c r="I13">
-        <v>4899</v>
+        <v>4173</v>
       </c>
       <c r="J13">
-        <v>12776</v>
+        <v>10643</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,164 +1805,164 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11704</v>
+        <v>8669</v>
       </c>
       <c r="O13">
-        <v>33091</v>
+        <v>25769</v>
       </c>
       <c r="P13">
-        <v>14382</v>
+        <v>13444</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>213</v>
       </c>
       <c r="R13">
-        <v>41545</v>
+        <v>37894</v>
       </c>
       <c r="S13">
-        <v>175000</v>
+        <v>112000</v>
       </c>
       <c r="T13">
-        <v>48150</v>
+        <v>24219</v>
       </c>
       <c r="U13">
-        <v>3931</v>
+        <v>1583</v>
       </c>
       <c r="V13">
-        <v>2735</v>
+        <v>1326</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-1778</v>
+        <v>-787</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="Z13">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="AA13">
-        <v>1394</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41636</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>1840</v>
+        <v>688</v>
       </c>
       <c r="D14">
-        <v>12309</v>
+        <v>8549</v>
       </c>
       <c r="E14">
-        <v>8013</v>
+        <v>5670</v>
       </c>
       <c r="F14">
-        <v>5244</v>
+        <v>1165</v>
       </c>
       <c r="G14">
-        <v>15763</v>
+        <v>10076</v>
       </c>
       <c r="H14">
-        <v>83166</v>
+        <v>51520</v>
       </c>
       <c r="I14">
-        <v>8484</v>
+        <v>5950</v>
       </c>
       <c r="J14">
-        <v>11714</v>
+        <v>10827</v>
       </c>
       <c r="K14">
-        <v>2149</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>-1046</v>
+        <v>-1073</v>
       </c>
       <c r="N14">
-        <v>15696</v>
+        <v>9555</v>
       </c>
       <c r="O14">
-        <v>35870</v>
+        <v>27042</v>
       </c>
       <c r="P14">
-        <v>15401</v>
+        <v>13159</v>
       </c>
       <c r="Q14">
-        <v>466</v>
+        <v>-121</v>
       </c>
       <c r="R14">
-        <v>41636</v>
+        <v>37986</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>47296</v>
+        <v>24478</v>
       </c>
       <c r="U14">
-        <v>4397</v>
+        <v>1462</v>
       </c>
       <c r="V14">
-        <v>1212</v>
+        <v>-2</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-237</v>
+        <v>44</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>1840</v>
+        <v>688</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41727</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>1917</v>
+        <v>537</v>
       </c>
       <c r="D15">
-        <v>11649</v>
+        <v>7189</v>
       </c>
       <c r="E15">
-        <v>7588</v>
+        <v>4612</v>
       </c>
       <c r="F15">
-        <v>5677</v>
+        <v>1036</v>
       </c>
       <c r="G15">
-        <v>15046</v>
+        <v>10748</v>
       </c>
       <c r="H15">
-        <v>82580</v>
+        <v>55096</v>
       </c>
       <c r="I15">
-        <v>6482</v>
+        <v>5738</v>
       </c>
       <c r="J15">
-        <v>10909</v>
+        <v>9961</v>
       </c>
       <c r="K15">
-        <v>2316</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1851,81 +1971,81 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15162</v>
+        <v>12776</v>
       </c>
       <c r="O15">
-        <v>34940</v>
+        <v>29603</v>
       </c>
       <c r="P15">
-        <v>15689</v>
+        <v>15315</v>
       </c>
       <c r="Q15">
-        <v>-319</v>
+        <v>1412</v>
       </c>
       <c r="R15">
-        <v>41727</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>47640</v>
+        <v>25493</v>
       </c>
       <c r="U15">
-        <v>4078</v>
+        <v>3148</v>
       </c>
       <c r="V15">
-        <v>2527</v>
+        <v>2506</v>
       </c>
       <c r="W15">
-        <v>-1508</v>
+        <v>-430</v>
       </c>
       <c r="X15">
-        <v>-2201</v>
+        <v>-828</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>1917</v>
+        <v>537</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41818</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>2245</v>
+        <v>604</v>
       </c>
       <c r="D16">
-        <v>12466</v>
+        <v>7471</v>
       </c>
       <c r="E16">
-        <v>7543</v>
+        <v>4529</v>
       </c>
       <c r="F16">
-        <v>6102</v>
+        <v>1096</v>
       </c>
       <c r="G16">
-        <v>15205</v>
+        <v>10167</v>
       </c>
       <c r="H16">
-        <v>83723</v>
+        <v>54561</v>
       </c>
       <c r="I16">
-        <v>6309</v>
+        <v>5418</v>
       </c>
       <c r="J16">
-        <v>12920</v>
+        <v>9352</v>
       </c>
       <c r="K16">
-        <v>1253</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>13351</v>
+        <v>12158</v>
       </c>
       <c r="O16">
-        <v>35111</v>
+        <v>28403</v>
       </c>
       <c r="P16">
-        <v>16136</v>
+        <v>14568</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>-125</v>
       </c>
       <c r="R16">
-        <v>41818</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>48612</v>
+        <v>26158</v>
       </c>
       <c r="U16">
-        <v>4090</v>
+        <v>3023</v>
       </c>
       <c r="V16">
-        <v>2936</v>
+        <v>899</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-1652</v>
+        <v>-590</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>2245</v>
+        <v>604</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41909</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>1499</v>
+        <v>516</v>
       </c>
       <c r="D17">
-        <v>12389</v>
+        <v>7543</v>
       </c>
       <c r="E17">
-        <v>7274</v>
+        <v>4255</v>
       </c>
       <c r="F17">
-        <v>5370</v>
+        <v>751</v>
       </c>
       <c r="G17">
-        <v>15169</v>
+        <v>9369</v>
       </c>
       <c r="H17">
-        <v>84141</v>
+        <v>53902</v>
       </c>
       <c r="I17">
-        <v>5371</v>
+        <v>4614</v>
       </c>
       <c r="J17">
-        <v>12631</v>
+        <v>9395</v>
       </c>
       <c r="K17">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,120 +2137,120 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13292</v>
+        <v>11059</v>
       </c>
       <c r="O17">
-        <v>35963</v>
+        <v>27023</v>
       </c>
       <c r="P17">
-        <v>14795</v>
+        <v>13827</v>
       </c>
       <c r="Q17">
-        <v>-669</v>
+        <v>-707</v>
       </c>
       <c r="R17">
-        <v>41909</v>
+        <v>38260</v>
       </c>
       <c r="S17">
-        <v>180000</v>
+        <v>129000</v>
       </c>
       <c r="T17">
-        <v>48178</v>
+        <v>26879</v>
       </c>
       <c r="U17">
-        <v>3421</v>
+        <v>2042</v>
       </c>
       <c r="V17">
-        <v>3105</v>
+        <v>967</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-2620</v>
+        <v>-1327</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>339</v>
       </c>
       <c r="Z17">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>1499</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42000</v>
+        <v>38353</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>2182</v>
+        <v>686</v>
       </c>
       <c r="D18">
-        <v>13391</v>
+        <v>8666</v>
       </c>
       <c r="E18">
-        <v>8591</v>
+        <v>5334</v>
       </c>
       <c r="F18">
-        <v>5735</v>
+        <v>1116</v>
       </c>
       <c r="G18">
-        <v>17240</v>
+        <v>10378</v>
       </c>
       <c r="H18">
-        <v>87035</v>
+        <v>55449</v>
       </c>
       <c r="I18">
-        <v>9039</v>
+        <v>6259</v>
       </c>
       <c r="J18">
-        <v>12167</v>
+        <v>10309</v>
       </c>
       <c r="K18">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>-1098</v>
+        <v>-832</v>
       </c>
       <c r="N18">
-        <v>16804</v>
+        <v>11264</v>
       </c>
       <c r="O18">
-        <v>39242</v>
+        <v>28204</v>
       </c>
       <c r="P18">
-        <v>16543</v>
+        <v>13714</v>
       </c>
       <c r="Q18">
-        <v>1656</v>
+        <v>124</v>
       </c>
       <c r="R18">
-        <v>42000</v>
+        <v>38353</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>47793</v>
+        <v>27245</v>
       </c>
       <c r="U18">
-        <v>5077</v>
+        <v>2166</v>
       </c>
       <c r="V18">
-        <v>1855</v>
+        <v>156</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>897</v>
+        <v>207</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,42 +2259,42 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>2182</v>
+        <v>686</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42091</v>
+        <v>38444</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>2108</v>
+        <v>657</v>
       </c>
       <c r="D19">
-        <v>12461</v>
+        <v>7829</v>
       </c>
       <c r="E19">
-        <v>8161</v>
+        <v>5354</v>
       </c>
       <c r="F19">
-        <v>5771</v>
+        <v>1109</v>
       </c>
       <c r="G19">
-        <v>15646</v>
+        <v>10182</v>
       </c>
       <c r="H19">
-        <v>85715</v>
+        <v>55047</v>
       </c>
       <c r="I19">
-        <v>6813</v>
+        <v>5261</v>
       </c>
       <c r="J19">
-        <v>12186</v>
+        <v>11664</v>
       </c>
       <c r="K19">
-        <v>2006</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2183,81 +2303,81 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13410</v>
+        <v>8596</v>
       </c>
       <c r="O19">
-        <v>35978</v>
+        <v>27003</v>
       </c>
       <c r="P19">
-        <v>14957</v>
+        <v>13187</v>
       </c>
       <c r="Q19">
-        <v>-1332</v>
+        <v>-225</v>
       </c>
       <c r="R19">
-        <v>42091</v>
+        <v>38444</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>49737</v>
+        <v>28044</v>
       </c>
       <c r="U19">
-        <v>3745</v>
+        <v>1941</v>
       </c>
       <c r="V19">
-        <v>2918</v>
+        <v>972</v>
       </c>
       <c r="W19">
-        <v>-1948</v>
+        <v>-490</v>
       </c>
       <c r="X19">
-        <v>-3242</v>
+        <v>-747</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>2108</v>
+        <v>657</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42182</v>
+        <v>38535</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>2483</v>
+        <v>811</v>
       </c>
       <c r="D20">
-        <v>13101</v>
+        <v>7715</v>
       </c>
       <c r="E20">
-        <v>8012</v>
+        <v>4870</v>
       </c>
       <c r="F20">
-        <v>6438</v>
+        <v>1282</v>
       </c>
       <c r="G20">
-        <v>16512</v>
+        <v>9508</v>
       </c>
       <c r="H20">
-        <v>87367</v>
+        <v>53892</v>
       </c>
       <c r="I20">
-        <v>7773</v>
+        <v>4831</v>
       </c>
       <c r="J20">
-        <v>12154</v>
+        <v>10925</v>
       </c>
       <c r="K20">
-        <v>2405</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>14826</v>
+        <v>8036</v>
       </c>
       <c r="O20">
-        <v>36860</v>
+        <v>25685</v>
       </c>
       <c r="P20">
-        <v>15273</v>
+        <v>12534</v>
       </c>
       <c r="Q20">
-        <v>730</v>
+        <v>93</v>
       </c>
       <c r="R20">
-        <v>42182</v>
+        <v>38535</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>50507</v>
+        <v>28207</v>
       </c>
       <c r="U20">
-        <v>4475</v>
+        <v>2034</v>
       </c>
       <c r="V20">
-        <v>2808</v>
+        <v>1800</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>-896</v>
+        <v>-1327</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="AA20">
-        <v>2483</v>
+        <v>811</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42280</v>
+        <v>38626</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>1609</v>
+        <v>379</v>
       </c>
       <c r="D21">
-        <v>13512</v>
+        <v>7734</v>
       </c>
       <c r="E21">
-        <v>7456</v>
+        <v>4221</v>
       </c>
       <c r="F21">
-        <v>6222</v>
+        <v>600</v>
       </c>
       <c r="G21">
-        <v>16758</v>
+        <v>8845</v>
       </c>
       <c r="H21">
-        <v>88182</v>
+        <v>53158</v>
       </c>
       <c r="I21">
-        <v>5504</v>
+        <v>4372</v>
       </c>
       <c r="J21">
-        <v>12773</v>
+        <v>10157</v>
       </c>
       <c r="K21">
-        <v>2430</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,164 +2469,164 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16334</v>
+        <v>9168</v>
       </c>
       <c r="O21">
-        <v>39527</v>
+        <v>25700</v>
       </c>
       <c r="P21">
-        <v>17336</v>
+        <v>12754</v>
       </c>
       <c r="Q21">
-        <v>-206</v>
+        <v>-311</v>
       </c>
       <c r="R21">
-        <v>42280</v>
+        <v>38626</v>
       </c>
       <c r="S21">
-        <v>185000</v>
+        <v>133000</v>
       </c>
       <c r="T21">
-        <v>48655</v>
+        <v>27458</v>
       </c>
       <c r="U21">
-        <v>4269</v>
+        <v>1723</v>
       </c>
       <c r="V21">
-        <v>3328</v>
+        <v>1341</v>
       </c>
       <c r="W21">
-        <v>-1115</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>-2273</v>
+        <v>-1030</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="Z21">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AA21">
-        <v>1609</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42371</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>2880</v>
+        <v>734</v>
       </c>
       <c r="D22">
-        <v>15244</v>
+        <v>8854</v>
       </c>
       <c r="E22">
-        <v>10298</v>
+        <v>5265</v>
       </c>
       <c r="F22">
-        <v>6621</v>
+        <v>1161</v>
       </c>
       <c r="G22">
-        <v>17768</v>
+        <v>9810</v>
       </c>
       <c r="H22">
-        <v>90121</v>
+        <v>53667</v>
       </c>
       <c r="I22">
-        <v>9317</v>
+        <v>5900</v>
       </c>
       <c r="J22">
-        <v>12965</v>
+        <v>10449</v>
       </c>
       <c r="K22">
-        <v>4339</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>-564</v>
+        <v>-300</v>
       </c>
       <c r="N22">
-        <v>18796</v>
+        <v>10236</v>
       </c>
       <c r="O22">
-        <v>41923</v>
+        <v>27028</v>
       </c>
       <c r="P22">
-        <v>18915</v>
+        <v>13203</v>
       </c>
       <c r="Q22">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="R22">
-        <v>42371</v>
+        <v>38717</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>48198</v>
+        <v>26639</v>
       </c>
       <c r="U22">
-        <v>4301</v>
+        <v>1819</v>
       </c>
       <c r="V22">
-        <v>2456</v>
+        <v>579</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-562</v>
+        <v>-374</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="AA22">
-        <v>2880</v>
+        <v>734</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42462</v>
+        <v>38808</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>2143</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>12969</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>8874</v>
+        <v>4727</v>
       </c>
       <c r="F23">
-        <v>6252</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>16999</v>
+        <v>9663</v>
       </c>
       <c r="H23">
-        <v>90264</v>
+        <v>53624</v>
       </c>
       <c r="I23">
-        <v>7232</v>
+        <v>5095</v>
       </c>
       <c r="J23">
-        <v>15367</v>
+        <v>10519</v>
       </c>
       <c r="K23">
-        <v>3144</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2515,81 +2635,81 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17073</v>
+        <v>9467</v>
       </c>
       <c r="O23">
-        <v>42254</v>
+        <v>26500</v>
       </c>
       <c r="P23">
-        <v>21122</v>
+        <v>12822</v>
       </c>
       <c r="Q23">
-        <v>714</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>42462</v>
+        <v>38808</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>48010</v>
+        <v>27124</v>
       </c>
       <c r="U23">
-        <v>5015</v>
+        <v>2031</v>
       </c>
       <c r="V23">
-        <v>3529</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>-1168</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>-1642</v>
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>2143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42553</v>
+        <v>38899</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>2597</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>14277</v>
+        <v>8474</v>
       </c>
       <c r="E24">
-        <v>8958</v>
+        <v>4743</v>
       </c>
       <c r="F24">
-        <v>7076</v>
+        <v>1740</v>
       </c>
       <c r="G24">
-        <v>17617</v>
+        <v>9165</v>
       </c>
       <c r="H24">
-        <v>90914</v>
+        <v>59357</v>
       </c>
       <c r="I24">
-        <v>8703</v>
+        <v>4811</v>
       </c>
       <c r="J24">
-        <v>15129</v>
+        <v>9974</v>
       </c>
       <c r="K24">
-        <v>2223</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,37 +2718,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18072</v>
+        <v>9351</v>
       </c>
       <c r="O24">
-        <v>42768</v>
+        <v>25567</v>
       </c>
       <c r="P24">
-        <v>20441</v>
+        <v>12666</v>
       </c>
       <c r="Q24">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>42553</v>
+        <v>38899</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>48146</v>
+        <v>33790</v>
       </c>
       <c r="U24">
-        <v>5227</v>
+        <v>1953</v>
       </c>
       <c r="V24">
-        <v>3630</v>
+        <v>0</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-2116</v>
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,42 +2757,42 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>2597</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42644</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>1771</v>
+        <v>782</v>
       </c>
       <c r="D25">
-        <v>13142</v>
+        <v>8652</v>
       </c>
       <c r="E25">
-        <v>8305</v>
+        <v>4339</v>
       </c>
       <c r="F25">
-        <v>5819</v>
+        <v>1315</v>
       </c>
       <c r="G25">
-        <v>16966</v>
+        <v>9562</v>
       </c>
       <c r="H25">
-        <v>92033</v>
+        <v>59998</v>
       </c>
       <c r="I25">
-        <v>6860</v>
+        <v>4688</v>
       </c>
       <c r="J25">
-        <v>16483</v>
+        <v>10843</v>
       </c>
       <c r="K25">
-        <v>1521</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,164 +2801,164 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16842</v>
+        <v>10210</v>
       </c>
       <c r="O25">
-        <v>44710</v>
+        <v>26835</v>
       </c>
       <c r="P25">
-        <v>20170</v>
+        <v>13817</v>
       </c>
       <c r="Q25">
-        <v>-923</v>
+        <v>458</v>
       </c>
       <c r="R25">
-        <v>42644</v>
+        <v>38990</v>
       </c>
       <c r="S25">
-        <v>195000</v>
+        <v>133000</v>
       </c>
       <c r="T25">
-        <v>47323</v>
+        <v>33163</v>
       </c>
       <c r="U25">
-        <v>4610</v>
+        <v>2411</v>
       </c>
       <c r="V25">
-        <v>3521</v>
+        <v>2409</v>
       </c>
       <c r="W25">
-        <v>-1145</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>-2900</v>
+        <v>-1368</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="Z25">
-        <v>-450</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>1771</v>
+        <v>782</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39081</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>2479</v>
+        <v>1701</v>
       </c>
       <c r="D26">
-        <v>14784</v>
+        <v>9581</v>
       </c>
       <c r="E26">
-        <v>9878</v>
+        <v>6313</v>
       </c>
       <c r="F26">
-        <v>6378</v>
+        <v>1674</v>
       </c>
       <c r="G26">
-        <v>16665</v>
+        <v>11115</v>
       </c>
       <c r="H26">
-        <v>91576</v>
+        <v>60993</v>
       </c>
       <c r="I26">
-        <v>9955</v>
+        <v>6916</v>
       </c>
       <c r="J26">
-        <v>14792</v>
+        <v>10629</v>
       </c>
       <c r="K26">
-        <v>2256</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>-194</v>
+        <v>-1308</v>
       </c>
       <c r="N26">
-        <v>19317</v>
+        <v>10587</v>
       </c>
       <c r="O26">
-        <v>44399</v>
+        <v>27127</v>
       </c>
       <c r="P26">
-        <v>20490</v>
+        <v>12388</v>
       </c>
       <c r="Q26">
-        <v>-689</v>
+        <v>26</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39081</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>47177</v>
+        <v>33866</v>
       </c>
       <c r="U26">
-        <v>3736</v>
+        <v>2437</v>
       </c>
       <c r="V26">
-        <v>1445</v>
+        <v>516</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-987</v>
+        <v>-1726</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>1530</v>
       </c>
       <c r="AA26">
-        <v>2479</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42826</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>2388</v>
+        <v>931</v>
       </c>
       <c r="D27">
-        <v>13336</v>
+        <v>7954</v>
       </c>
       <c r="E27">
-        <v>9293</v>
+        <v>4949</v>
       </c>
       <c r="F27">
-        <v>6367</v>
+        <v>1513</v>
       </c>
       <c r="G27">
-        <v>16270</v>
+        <v>9514</v>
       </c>
       <c r="H27">
-        <v>91807</v>
+        <v>59605</v>
       </c>
       <c r="I27">
-        <v>8025</v>
+        <v>5396</v>
       </c>
       <c r="J27">
-        <v>16788</v>
+        <v>10290</v>
       </c>
       <c r="K27">
-        <v>2446</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -2847,81 +2967,81 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>17365</v>
+        <v>10277</v>
       </c>
       <c r="O27">
-        <v>44540</v>
+        <v>26734</v>
       </c>
       <c r="P27">
-        <v>21653</v>
+        <v>12689</v>
       </c>
       <c r="Q27">
-        <v>-146</v>
+        <v>-255</v>
       </c>
       <c r="R27">
-        <v>42826</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>47267</v>
+        <v>32871</v>
       </c>
       <c r="U27">
-        <v>3800</v>
+        <v>2182</v>
       </c>
       <c r="V27">
-        <v>3228</v>
+        <v>2244</v>
       </c>
       <c r="W27">
-        <v>-1237</v>
+        <v>-637</v>
       </c>
       <c r="X27">
-        <v>-2062</v>
+        <v>-2213</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-557</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>2388</v>
+        <v>931</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42917</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>2366</v>
+        <v>1178</v>
       </c>
       <c r="D28">
-        <v>14238</v>
+        <v>9045</v>
       </c>
       <c r="E28">
-        <v>9636</v>
+        <v>5139</v>
       </c>
       <c r="F28">
-        <v>6521</v>
+        <v>2023</v>
       </c>
       <c r="G28">
-        <v>17151</v>
+        <v>10818</v>
       </c>
       <c r="H28">
-        <v>92752</v>
+        <v>59667</v>
       </c>
       <c r="I28">
-        <v>9374</v>
+        <v>5137</v>
       </c>
       <c r="J28">
-        <v>18849</v>
+        <v>11728</v>
       </c>
       <c r="K28">
-        <v>1411</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>17094</v>
+        <v>9545</v>
       </c>
       <c r="O28">
-        <v>46701</v>
+        <v>26908</v>
       </c>
       <c r="P28">
-        <v>22187</v>
+        <v>13675</v>
       </c>
       <c r="Q28">
-        <v>503</v>
+        <v>1282</v>
       </c>
       <c r="R28">
-        <v>42917</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>46051</v>
+        <v>32759</v>
       </c>
       <c r="U28">
-        <v>4336</v>
+        <v>3464</v>
       </c>
       <c r="V28">
-        <v>4100</v>
+        <v>1094</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-2743</v>
+        <v>736</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,42 +3089,42 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>2366</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39354</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>1747</v>
+        <v>877</v>
       </c>
       <c r="D29">
-        <v>12779</v>
+        <v>8930</v>
       </c>
       <c r="E29">
-        <v>7424</v>
+        <v>4608</v>
       </c>
       <c r="F29">
-        <v>5680</v>
+        <v>1619</v>
       </c>
       <c r="G29">
-        <v>15889</v>
+        <v>11314</v>
       </c>
       <c r="H29">
-        <v>95789</v>
+        <v>60928</v>
       </c>
       <c r="I29">
-        <v>6305</v>
+        <v>4429</v>
       </c>
       <c r="J29">
-        <v>19119</v>
+        <v>11892</v>
       </c>
       <c r="K29">
-        <v>2772</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,120 +3133,120 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>19595</v>
+        <v>11391</v>
       </c>
       <c r="O29">
-        <v>49637</v>
+        <v>28880</v>
       </c>
       <c r="P29">
-        <v>25291</v>
+        <v>15446</v>
       </c>
       <c r="Q29">
-        <v>-364</v>
+        <v>206</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39354</v>
       </c>
       <c r="S29">
-        <v>199000</v>
+        <v>137000</v>
       </c>
       <c r="T29">
-        <v>46152</v>
+        <v>32048</v>
       </c>
       <c r="U29">
-        <v>4017</v>
+        <v>3670</v>
       </c>
       <c r="V29">
-        <v>3570</v>
+        <v>1567</v>
       </c>
       <c r="W29">
-        <v>-1208</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>-3167</v>
+        <v>-338</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="Z29">
-        <v>557</v>
+        <v>5</v>
       </c>
       <c r="AA29">
-        <v>1747</v>
+        <v>877</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43099</v>
+        <v>39445</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>4423</v>
+        <v>1250</v>
       </c>
       <c r="D30">
-        <v>15351</v>
+        <v>10452</v>
       </c>
       <c r="E30">
-        <v>9886</v>
+        <v>6994</v>
       </c>
       <c r="F30">
-        <v>6622</v>
+        <v>2033</v>
       </c>
       <c r="G30">
-        <v>17274</v>
+        <v>13268</v>
       </c>
       <c r="H30">
-        <v>97734</v>
+        <v>62772</v>
       </c>
       <c r="I30">
-        <v>9574</v>
+        <v>7084</v>
       </c>
       <c r="J30">
-        <v>20082</v>
+        <v>12785</v>
       </c>
       <c r="K30">
-        <v>3911</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>-402</v>
       </c>
       <c r="M30">
-        <v>-1330</v>
+        <v>-117</v>
       </c>
       <c r="N30">
-        <v>19875</v>
+        <v>12383</v>
       </c>
       <c r="O30">
-        <v>49509</v>
+        <v>31065</v>
       </c>
       <c r="P30">
-        <v>26091</v>
+        <v>15730</v>
       </c>
       <c r="Q30">
-        <v>631</v>
+        <v>-256</v>
       </c>
       <c r="R30">
-        <v>43099</v>
+        <v>39445</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>48225</v>
+        <v>31707</v>
       </c>
       <c r="U30">
-        <v>4677</v>
+        <v>3414</v>
       </c>
       <c r="V30">
-        <v>2237</v>
+        <v>662</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-584</v>
+        <v>-594</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3135,42 +3255,42 @@
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>4423</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39536</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>2937</v>
+        <v>1133</v>
       </c>
       <c r="D31">
-        <v>14548</v>
+        <v>8710</v>
       </c>
       <c r="E31">
-        <v>9678</v>
+        <v>5595</v>
       </c>
       <c r="F31">
-        <v>7007</v>
+        <v>1898</v>
       </c>
       <c r="G31">
-        <v>16808</v>
+        <v>12396</v>
       </c>
       <c r="H31">
-        <v>97943</v>
+        <v>62291</v>
       </c>
       <c r="I31">
-        <v>9022</v>
+        <v>5399</v>
       </c>
       <c r="J31">
-        <v>18766</v>
+        <v>12929</v>
       </c>
       <c r="K31">
-        <v>4151</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3179,37 +3299,37 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>19728</v>
+        <v>11256</v>
       </c>
       <c r="O31">
-        <v>48142</v>
+        <v>30357</v>
       </c>
       <c r="P31">
-        <v>24684</v>
+        <v>15790</v>
       </c>
       <c r="Q31">
-        <v>-500</v>
+        <v>446</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39536</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>49801</v>
+        <v>31934</v>
       </c>
       <c r="U31">
-        <v>4179</v>
+        <v>3860</v>
       </c>
       <c r="V31">
-        <v>4526</v>
+        <v>2603</v>
       </c>
       <c r="W31">
-        <v>-1266</v>
+        <v>-664</v>
       </c>
       <c r="X31">
-        <v>-2298</v>
+        <v>-1674</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,42 +3338,42 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>2937</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39627</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>2916</v>
+        <v>1284</v>
       </c>
       <c r="D32">
-        <v>15229</v>
+        <v>9236</v>
       </c>
       <c r="E32">
-        <v>10071</v>
+        <v>5669</v>
       </c>
       <c r="F32">
-        <v>6881</v>
+        <v>2021</v>
       </c>
       <c r="G32">
-        <v>17729</v>
+        <v>11243</v>
       </c>
       <c r="H32">
-        <v>98792</v>
+        <v>61582</v>
       </c>
       <c r="I32">
-        <v>9763</v>
+        <v>5246</v>
       </c>
       <c r="J32">
-        <v>17681</v>
+        <v>11522</v>
       </c>
       <c r="K32">
-        <v>3233</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,37 +3382,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>20214</v>
+        <v>10039</v>
       </c>
       <c r="O32">
-        <v>47584</v>
+        <v>27567</v>
       </c>
       <c r="P32">
-        <v>23673</v>
+        <v>13572</v>
       </c>
       <c r="Q32">
-        <v>136</v>
+        <v>-1271</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39627</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>51208</v>
+        <v>34015</v>
       </c>
       <c r="U32">
-        <v>4326</v>
+        <v>2589</v>
       </c>
       <c r="V32">
-        <v>3679</v>
+        <v>936</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-2099</v>
+        <v>-1633</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,42 +3421,42 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>2916</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43372</v>
+        <v>39718</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>2322</v>
+        <v>760</v>
       </c>
       <c r="D33">
-        <v>14306</v>
+        <v>9445</v>
       </c>
       <c r="E33">
-        <v>8076</v>
+        <v>4959</v>
       </c>
       <c r="F33">
-        <v>6198</v>
+        <v>1491</v>
       </c>
       <c r="G33">
-        <v>16825</v>
+        <v>11666</v>
       </c>
       <c r="H33">
-        <v>98598</v>
+        <v>62497</v>
       </c>
       <c r="I33">
-        <v>6503</v>
+        <v>4355</v>
       </c>
       <c r="J33">
-        <v>17084</v>
+        <v>11110</v>
       </c>
       <c r="K33">
-        <v>1005</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,164 +3465,164 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>17860</v>
+        <v>11591</v>
       </c>
       <c r="O33">
-        <v>44643</v>
+        <v>28830</v>
       </c>
       <c r="P33">
-        <v>20874</v>
+        <v>14880</v>
       </c>
       <c r="Q33">
-        <v>-176</v>
+        <v>412</v>
       </c>
       <c r="R33">
-        <v>43372</v>
+        <v>39718</v>
       </c>
       <c r="S33">
-        <v>201000</v>
+        <v>150000</v>
       </c>
       <c r="T33">
-        <v>53955</v>
+        <v>33667</v>
       </c>
       <c r="U33">
-        <v>4150</v>
+        <v>3001</v>
       </c>
       <c r="V33">
-        <v>3853</v>
+        <v>1245</v>
       </c>
       <c r="W33">
-        <v>-1249</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>-3862</v>
+        <v>-52</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AA33">
-        <v>2322</v>
+        <v>760</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43463</v>
+        <v>39809</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>2788</v>
+        <v>845</v>
       </c>
       <c r="D34">
-        <v>15303</v>
+        <v>9599</v>
       </c>
       <c r="E34">
-        <v>10123</v>
+        <v>6106</v>
       </c>
       <c r="F34">
-        <v>6302</v>
+        <v>1217</v>
       </c>
       <c r="G34">
-        <v>17537</v>
+        <v>13472</v>
       </c>
       <c r="H34">
-        <v>99941</v>
+        <v>64901</v>
       </c>
       <c r="I34">
-        <v>10696</v>
+        <v>6638</v>
       </c>
       <c r="J34">
-        <v>17176</v>
+        <v>12232</v>
       </c>
       <c r="K34">
-        <v>699</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>-302</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>-579</v>
       </c>
       <c r="N34">
-        <v>17619</v>
+        <v>12604</v>
       </c>
       <c r="O34">
-        <v>44424</v>
+        <v>30986</v>
       </c>
       <c r="P34">
-        <v>20665</v>
+        <v>16003</v>
       </c>
       <c r="Q34">
-        <v>308</v>
+        <v>794</v>
       </c>
       <c r="R34">
-        <v>43463</v>
+        <v>39809</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>55517</v>
+        <v>33915</v>
       </c>
       <c r="U34">
-        <v>4455</v>
+        <v>3795</v>
       </c>
       <c r="V34">
-        <v>2099</v>
+        <v>262</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-411</v>
+        <v>780</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="AA34">
-        <v>2788</v>
+        <v>845</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43554</v>
+        <v>39900</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>8087</v>
       </c>
       <c r="E35">
-        <v>14593</v>
+        <v>4939</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1287</v>
       </c>
       <c r="G35">
-        <v>34277</v>
+        <v>11977</v>
       </c>
       <c r="H35">
-        <v>214342</v>
+        <v>63032</v>
       </c>
       <c r="I35">
-        <v>20503</v>
+        <v>5110</v>
       </c>
       <c r="J35">
-        <v>37803</v>
+        <v>12541</v>
       </c>
       <c r="K35">
-        <v>1396</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -3511,78 +3631,78 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>44376</v>
+        <v>10186</v>
       </c>
       <c r="O35">
-        <v>108900</v>
+        <v>28733</v>
       </c>
       <c r="P35">
-        <v>56961</v>
+        <v>14728</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>-426</v>
       </c>
       <c r="R35">
-        <v>43554</v>
+        <v>39900</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>105442</v>
+        <v>34299</v>
       </c>
       <c r="U35">
-        <v>10108</v>
+        <v>3369</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>1805</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>-648</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>-1766</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>-185</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>613</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43645</v>
+        <v>39991</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>1760</v>
+        <v>954</v>
       </c>
       <c r="D36">
-        <v>20262</v>
+        <v>8596</v>
       </c>
       <c r="E36">
-        <v>15673</v>
+        <v>4944</v>
       </c>
       <c r="F36">
-        <v>7425</v>
+        <v>1598</v>
       </c>
       <c r="G36">
-        <v>31370</v>
+        <v>11499</v>
       </c>
       <c r="H36">
-        <v>209475</v>
+        <v>62584</v>
       </c>
       <c r="I36">
-        <v>17647</v>
+        <v>4705</v>
       </c>
       <c r="J36">
-        <v>36311</v>
+        <v>12552</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,37 +3714,37 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>44593</v>
+        <v>8606</v>
       </c>
       <c r="O36">
-        <v>104222</v>
+        <v>27186</v>
       </c>
       <c r="P36">
-        <v>58234</v>
+        <v>13694</v>
       </c>
       <c r="Q36">
-        <v>-2865</v>
+        <v>-241</v>
       </c>
       <c r="R36">
-        <v>43645</v>
+        <v>39991</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>105253</v>
+        <v>35398</v>
       </c>
       <c r="U36">
-        <v>6728</v>
+        <v>3128</v>
       </c>
       <c r="V36">
-        <v>-1393</v>
+        <v>1514</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-342</v>
+        <v>-1358</v>
       </c>
       <c r="Y36">
         <v>0</v>
@@ -3633,42 +3753,42 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>1760</v>
+        <v>954</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43736</v>
+        <v>40089</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>1054</v>
+        <v>895</v>
       </c>
       <c r="D37">
-        <v>19118</v>
+        <v>9867</v>
       </c>
       <c r="E37">
-        <v>12587</v>
+        <v>4458</v>
       </c>
       <c r="F37">
-        <v>7274</v>
+        <v>1595</v>
       </c>
       <c r="G37">
-        <v>28124</v>
+        <v>11889</v>
       </c>
       <c r="H37">
-        <v>193984</v>
+        <v>63117</v>
       </c>
       <c r="I37">
-        <v>13778</v>
+        <v>4002</v>
       </c>
       <c r="J37">
-        <v>38129</v>
+        <v>11495</v>
       </c>
       <c r="K37">
-        <v>5342</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,164 +3797,164 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>31341</v>
+        <v>8934</v>
       </c>
       <c r="O37">
-        <v>91132</v>
+        <v>27692</v>
       </c>
       <c r="P37">
-        <v>47137</v>
+        <v>12927</v>
       </c>
       <c r="Q37">
-        <v>-1902</v>
+        <v>289</v>
       </c>
       <c r="R37">
-        <v>43736</v>
+        <v>40089</v>
       </c>
       <c r="S37">
-        <v>223000</v>
+        <v>144000</v>
       </c>
       <c r="T37">
-        <v>102852</v>
+        <v>35425</v>
       </c>
       <c r="U37">
-        <v>5418</v>
+        <v>3417</v>
       </c>
       <c r="V37">
-        <v>2020</v>
+        <v>1738</v>
       </c>
       <c r="W37">
-        <v>-1585</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>-13444</v>
+        <v>-804</v>
       </c>
       <c r="Y37">
-        <v>132</v>
+        <v>226</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AA37">
-        <v>1054</v>
+        <v>895</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43827</v>
+        <v>40180</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>2107</v>
+        <v>844</v>
       </c>
       <c r="D38">
-        <v>20877</v>
+        <v>9739</v>
       </c>
       <c r="E38">
-        <v>17100</v>
+        <v>5972</v>
       </c>
       <c r="F38">
-        <v>7843</v>
+        <v>1414</v>
       </c>
       <c r="G38">
-        <v>27776</v>
+        <v>12945</v>
       </c>
       <c r="H38">
-        <v>200948</v>
+        <v>69314</v>
       </c>
       <c r="I38">
-        <v>18920</v>
+        <v>6646</v>
       </c>
       <c r="J38">
-        <v>38057</v>
+        <v>11189</v>
       </c>
       <c r="K38">
-        <v>6534</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>-46</v>
+        <v>-79</v>
       </c>
       <c r="N38">
-        <v>34797</v>
+        <v>11667</v>
       </c>
       <c r="O38">
-        <v>97146</v>
+        <v>31356</v>
       </c>
       <c r="P38">
-        <v>51932</v>
+        <v>13831</v>
       </c>
       <c r="Q38">
-        <v>1419</v>
+        <v>-213</v>
       </c>
       <c r="R38">
-        <v>43827</v>
+        <v>40180</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>103802</v>
+        <v>37958</v>
       </c>
       <c r="U38">
-        <v>6833</v>
+        <v>3204</v>
       </c>
       <c r="V38">
-        <v>1611</v>
+        <v>915</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>1117</v>
+        <v>1426</v>
       </c>
       <c r="Y38">
-        <v>3022</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AA38">
-        <v>2107</v>
+        <v>844</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43918</v>
+        <v>40271</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>460</v>
+        <v>953</v>
       </c>
       <c r="D39">
-        <v>18044</v>
+        <v>8580</v>
       </c>
       <c r="E39">
-        <v>14532</v>
+        <v>5478</v>
       </c>
       <c r="F39">
-        <v>6089</v>
+        <v>1512</v>
       </c>
       <c r="G39">
-        <v>33274</v>
+        <v>12487</v>
       </c>
       <c r="H39">
-        <v>206294</v>
+        <v>68760</v>
       </c>
       <c r="I39">
-        <v>17048</v>
+        <v>4827</v>
       </c>
       <c r="J39">
-        <v>42770</v>
+        <v>11000</v>
       </c>
       <c r="K39">
-        <v>8483</v>
+        <v>974</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -3843,81 +3963,81 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>35473</v>
+        <v>10052</v>
       </c>
       <c r="O39">
-        <v>102321</v>
+        <v>29791</v>
       </c>
       <c r="P39">
-        <v>59555</v>
+        <v>13241</v>
       </c>
       <c r="Q39">
-        <v>7504</v>
+        <v>-129</v>
       </c>
       <c r="R39">
-        <v>43918</v>
+        <v>40271</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>103973</v>
+        <v>38969</v>
       </c>
       <c r="U39">
-        <v>14339</v>
+        <v>3075</v>
       </c>
       <c r="V39">
-        <v>3180</v>
+        <v>1574</v>
       </c>
       <c r="W39">
-        <v>-1587</v>
+        <v>-653</v>
       </c>
       <c r="X39">
-        <v>5499</v>
+        <v>-1167</v>
       </c>
       <c r="Y39">
-        <v>3251</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>-37</v>
       </c>
       <c r="AA39">
-        <v>460</v>
+        <v>953</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44009</v>
+        <v>40362</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-4721</v>
+        <v>1331</v>
       </c>
       <c r="D40">
-        <v>11779</v>
+        <v>10002</v>
       </c>
       <c r="E40">
-        <v>12622</v>
+        <v>5744</v>
       </c>
       <c r="F40">
-        <v>3883</v>
+        <v>2279</v>
       </c>
       <c r="G40">
-        <v>41330</v>
+        <v>12601</v>
       </c>
       <c r="H40">
-        <v>207649</v>
+        <v>68305</v>
       </c>
       <c r="I40">
-        <v>16144</v>
+        <v>4776</v>
       </c>
       <c r="J40">
-        <v>54197</v>
+        <v>10823</v>
       </c>
       <c r="K40">
-        <v>6735</v>
+        <v>794</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>30917</v>
+        <v>9489</v>
       </c>
       <c r="O40">
-        <v>108024</v>
+        <v>28704</v>
       </c>
       <c r="P40">
-        <v>68313</v>
+        <v>12646</v>
       </c>
       <c r="Q40">
-        <v>8776</v>
+        <v>-124</v>
       </c>
       <c r="R40">
-        <v>44009</v>
+        <v>40362</v>
       </c>
       <c r="S40">
-        <v>210000</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>99625</v>
+        <v>39601</v>
       </c>
       <c r="U40">
-        <v>23115</v>
+        <v>2951</v>
       </c>
       <c r="V40">
-        <v>1160</v>
+        <v>1883</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>8303</v>
+        <v>-1414</v>
       </c>
       <c r="Y40">
-        <v>3050</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>-4721</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44107</v>
+        <v>40453</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>-710</v>
+        <v>835</v>
       </c>
       <c r="D41">
-        <v>14707</v>
+        <v>9742</v>
       </c>
       <c r="E41">
-        <v>10873</v>
+        <v>5128</v>
       </c>
       <c r="F41">
-        <v>3694</v>
+        <v>1770</v>
       </c>
       <c r="G41">
-        <v>35251</v>
+        <v>12225</v>
       </c>
       <c r="H41">
-        <v>201549</v>
+        <v>69206</v>
       </c>
       <c r="I41">
-        <v>12663</v>
+        <v>4413</v>
       </c>
       <c r="J41">
-        <v>52917</v>
+        <v>10130</v>
       </c>
       <c r="K41">
-        <v>2023</v>
+        <v>1190</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>26628</v>
+        <v>11000</v>
       </c>
       <c r="O41">
-        <v>104037</v>
+        <v>29864</v>
       </c>
       <c r="P41">
-        <v>62323</v>
+        <v>12704</v>
       </c>
       <c r="Q41">
-        <v>-5200</v>
+        <v>-229</v>
       </c>
       <c r="R41">
-        <v>44107</v>
+        <v>40453</v>
       </c>
       <c r="S41">
-        <v>203000</v>
+        <v>149000</v>
       </c>
       <c r="T41">
-        <v>97512</v>
+        <v>39342</v>
       </c>
       <c r="U41">
-        <v>17914</v>
+        <v>2722</v>
       </c>
       <c r="V41">
-        <v>1667</v>
+        <v>2206</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>-6439</v>
+        <v>-1508</v>
       </c>
       <c r="Y41">
-        <v>2911</v>
+        <v>224</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>-710</v>
+        <v>835</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44198</v>
+        <v>40544</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>1302</v>
+      </c>
+      <c r="D42">
+        <v>10716</v>
+      </c>
+      <c r="E42">
+        <v>7028</v>
+      </c>
+      <c r="F42">
+        <v>1940</v>
+      </c>
+      <c r="G42">
+        <v>13994</v>
+      </c>
+      <c r="H42">
+        <v>70950</v>
+      </c>
+      <c r="I42">
+        <v>7002</v>
+      </c>
+      <c r="J42">
+        <v>9950</v>
+      </c>
+      <c r="K42">
+        <v>1686</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>-42</v>
+      </c>
+      <c r="N42">
+        <v>12747</v>
+      </c>
+      <c r="O42">
+        <v>31211</v>
+      </c>
+      <c r="P42">
+        <v>12772</v>
+      </c>
+      <c r="Q42">
+        <v>317</v>
+      </c>
+      <c r="R42">
+        <v>40544</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>39739</v>
+      </c>
+      <c r="U42">
+        <v>3039</v>
+      </c>
+      <c r="V42">
+        <v>1119</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>99</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40635</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>942</v>
+      </c>
+      <c r="D43">
+        <v>9077</v>
+      </c>
+      <c r="E43">
+        <v>6075</v>
+      </c>
+      <c r="F43">
+        <v>1528</v>
+      </c>
+      <c r="G43">
+        <v>13220</v>
+      </c>
+      <c r="H43">
+        <v>70588</v>
+      </c>
+      <c r="I43">
+        <v>4959</v>
+      </c>
+      <c r="J43">
+        <v>8688</v>
+      </c>
+      <c r="K43">
+        <v>1660</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>12803</v>
+      </c>
+      <c r="O43">
+        <v>30276</v>
+      </c>
+      <c r="P43">
+        <v>12772</v>
+      </c>
+      <c r="Q43">
+        <v>55</v>
+      </c>
+      <c r="R43">
+        <v>40635</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>40312</v>
+      </c>
+      <c r="U43">
+        <v>3094</v>
+      </c>
+      <c r="V43">
+        <v>1949</v>
+      </c>
+      <c r="W43">
+        <v>-756</v>
+      </c>
+      <c r="X43">
+        <v>-1306</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40726</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>1476</v>
+      </c>
+      <c r="D44">
+        <v>10675</v>
+      </c>
+      <c r="E44">
+        <v>6212</v>
+      </c>
+      <c r="F44">
+        <v>2446</v>
+      </c>
+      <c r="G44">
+        <v>13643</v>
+      </c>
+      <c r="H44">
+        <v>71105</v>
+      </c>
+      <c r="I44">
+        <v>5403</v>
+      </c>
+      <c r="J44">
+        <v>9176</v>
+      </c>
+      <c r="K44">
+        <v>1810</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>12766</v>
+      </c>
+      <c r="O44">
+        <v>30183</v>
+      </c>
+      <c r="P44">
+        <v>13238</v>
+      </c>
+      <c r="Q44">
+        <v>425</v>
+      </c>
+      <c r="R44">
+        <v>40726</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>40922</v>
+      </c>
+      <c r="U44">
+        <v>3519</v>
+      </c>
+      <c r="V44">
+        <v>1822</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-825</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40817</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>1087</v>
+      </c>
+      <c r="D45">
+        <v>10425</v>
+      </c>
+      <c r="E45">
+        <v>5686</v>
+      </c>
+      <c r="F45">
+        <v>1870</v>
+      </c>
+      <c r="G45">
+        <v>13757</v>
+      </c>
+      <c r="H45">
+        <v>72124</v>
+      </c>
+      <c r="I45">
+        <v>4546</v>
+      </c>
+      <c r="J45">
+        <v>10922</v>
+      </c>
+      <c r="K45">
+        <v>1583</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>12088</v>
+      </c>
+      <c r="O45">
+        <v>32671</v>
+      </c>
+      <c r="P45">
+        <v>14265</v>
+      </c>
+      <c r="Q45">
+        <v>-334</v>
+      </c>
+      <c r="R45">
+        <v>40817</v>
+      </c>
+      <c r="S45">
+        <v>156000</v>
+      </c>
+      <c r="T45">
+        <v>39453</v>
+      </c>
+      <c r="U45">
+        <v>3185</v>
+      </c>
+      <c r="V45">
+        <v>2104</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-1201</v>
+      </c>
+      <c r="Y45">
+        <v>288</v>
+      </c>
+      <c r="Z45">
+        <v>5</v>
+      </c>
+      <c r="AA45">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>1464</v>
+      </c>
+      <c r="D46">
+        <v>10779</v>
+      </c>
+      <c r="E46">
+        <v>6787</v>
+      </c>
+      <c r="F46">
+        <v>2192</v>
+      </c>
+      <c r="G46">
+        <v>15060</v>
+      </c>
+      <c r="H46">
+        <v>73877</v>
+      </c>
+      <c r="I46">
+        <v>7671</v>
+      </c>
+      <c r="J46">
+        <v>11226</v>
+      </c>
+      <c r="K46">
+        <v>607</v>
+      </c>
+      <c r="L46">
+        <v>-976</v>
+      </c>
+      <c r="M46">
+        <v>-49</v>
+      </c>
+      <c r="N46">
+        <v>13524</v>
+      </c>
+      <c r="O46">
+        <v>34454</v>
+      </c>
+      <c r="P46">
+        <v>14386</v>
+      </c>
+      <c r="Q46">
+        <v>581</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>39423</v>
+      </c>
+      <c r="U46">
+        <v>3766</v>
+      </c>
+      <c r="V46">
+        <v>1734</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-130</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>1143</v>
+      </c>
+      <c r="D47">
+        <v>9629</v>
+      </c>
+      <c r="E47">
+        <v>6283</v>
+      </c>
+      <c r="F47">
+        <v>1687</v>
+      </c>
+      <c r="G47">
+        <v>14537</v>
+      </c>
+      <c r="H47">
+        <v>75233</v>
+      </c>
+      <c r="I47">
+        <v>5859</v>
+      </c>
+      <c r="J47">
+        <v>12582</v>
+      </c>
+      <c r="K47">
+        <v>1873</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>12724</v>
+      </c>
+      <c r="O47">
+        <v>35321</v>
+      </c>
+      <c r="P47">
+        <v>16029</v>
+      </c>
+      <c r="Q47">
+        <v>-35</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>39912</v>
+      </c>
+      <c r="U47">
+        <v>3731</v>
+      </c>
+      <c r="V47">
+        <v>1812</v>
+      </c>
+      <c r="W47">
+        <v>-1076</v>
+      </c>
+      <c r="X47">
+        <v>-96</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>1831</v>
+      </c>
+      <c r="D48">
+        <v>11088</v>
+      </c>
+      <c r="E48">
+        <v>5951</v>
+      </c>
+      <c r="F48">
+        <v>2960</v>
+      </c>
+      <c r="G48">
+        <v>14754</v>
+      </c>
+      <c r="H48">
+        <v>75291</v>
+      </c>
+      <c r="I48">
+        <v>5504</v>
+      </c>
+      <c r="J48">
+        <v>12454</v>
+      </c>
+      <c r="K48">
+        <v>1025</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>11117</v>
+      </c>
+      <c r="O48">
+        <v>33218</v>
+      </c>
+      <c r="P48">
+        <v>15023</v>
+      </c>
+      <c r="Q48">
+        <v>643</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>42073</v>
+      </c>
+      <c r="U48">
+        <v>4374</v>
+      </c>
+      <c r="V48">
+        <v>2885</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-1454</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41181</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>1244</v>
+      </c>
+      <c r="D49">
+        <v>10782</v>
+      </c>
+      <c r="E49">
+        <v>6152</v>
+      </c>
+      <c r="F49">
+        <v>2034</v>
+      </c>
+      <c r="G49">
+        <v>13709</v>
+      </c>
+      <c r="H49">
+        <v>74898</v>
+      </c>
+      <c r="I49">
+        <v>4619</v>
+      </c>
+      <c r="J49">
+        <v>10697</v>
+      </c>
+      <c r="K49">
+        <v>2050</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>12813</v>
+      </c>
+      <c r="O49">
+        <v>32940</v>
+      </c>
+      <c r="P49">
+        <v>14595</v>
+      </c>
+      <c r="Q49">
+        <v>-987</v>
+      </c>
+      <c r="R49">
+        <v>41181</v>
+      </c>
+      <c r="S49">
+        <v>166000</v>
+      </c>
+      <c r="T49">
+        <v>41958</v>
+      </c>
+      <c r="U49">
+        <v>3387</v>
+      </c>
+      <c r="V49">
+        <v>1535</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-1305</v>
+      </c>
+      <c r="Y49">
+        <v>284</v>
+      </c>
+      <c r="Z49">
+        <v>15</v>
+      </c>
+      <c r="AA49">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41272</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>1382</v>
+      </c>
+      <c r="D50">
+        <v>11341</v>
+      </c>
+      <c r="E50">
+        <v>7315</v>
+      </c>
+      <c r="F50">
+        <v>2092</v>
+      </c>
+      <c r="G50">
+        <v>14322</v>
+      </c>
+      <c r="H50">
+        <v>80642</v>
+      </c>
+      <c r="I50">
+        <v>6737</v>
+      </c>
+      <c r="J50">
+        <v>12633</v>
+      </c>
+      <c r="K50">
+        <v>3044</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>-776</v>
+      </c>
+      <c r="N50">
+        <v>14498</v>
+      </c>
+      <c r="O50">
+        <v>37272</v>
+      </c>
+      <c r="P50">
+        <v>17448</v>
+      </c>
+      <c r="Q50">
+        <v>-180</v>
+      </c>
+      <c r="R50">
+        <v>41272</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>43370</v>
+      </c>
+      <c r="U50">
+        <v>3207</v>
+      </c>
+      <c r="V50">
+        <v>1144</v>
+      </c>
+      <c r="W50">
+        <v>-1300</v>
+      </c>
+      <c r="X50">
+        <v>1136</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>340</v>
+      </c>
+      <c r="AA50">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41363</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>1513</v>
+      </c>
+      <c r="D51">
+        <v>10554</v>
+      </c>
+      <c r="E51">
+        <v>7154</v>
+      </c>
+      <c r="F51">
+        <v>2195</v>
+      </c>
+      <c r="G51">
+        <v>15003</v>
+      </c>
+      <c r="H51">
+        <v>81358</v>
+      </c>
+      <c r="I51">
+        <v>6308</v>
+      </c>
+      <c r="J51">
+        <v>13381</v>
+      </c>
+      <c r="K51">
+        <v>1805</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>13453</v>
+      </c>
+      <c r="O51">
+        <v>37214</v>
+      </c>
+      <c r="P51">
+        <v>16937</v>
+      </c>
+      <c r="Q51">
+        <v>745</v>
+      </c>
+      <c r="R51">
+        <v>41363</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>44144</v>
+      </c>
+      <c r="U51">
+        <v>3952</v>
+      </c>
+      <c r="V51">
+        <v>2160</v>
+      </c>
+      <c r="W51">
+        <v>-24</v>
+      </c>
+      <c r="X51">
+        <v>-826</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>10</v>
+      </c>
+      <c r="AA51">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41454</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>1847</v>
+      </c>
+      <c r="D52">
+        <v>11578</v>
+      </c>
+      <c r="E52">
+        <v>6568</v>
+      </c>
+      <c r="F52">
+        <v>3004</v>
+      </c>
+      <c r="G52">
+        <v>14205</v>
+      </c>
+      <c r="H52">
+        <v>80565</v>
+      </c>
+      <c r="I52">
+        <v>5578</v>
+      </c>
+      <c r="J52">
+        <v>12784</v>
+      </c>
+      <c r="K52">
+        <v>50</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>11341</v>
+      </c>
+      <c r="O52">
+        <v>34658</v>
+      </c>
+      <c r="P52">
+        <v>15003</v>
+      </c>
+      <c r="Q52">
+        <v>-20</v>
+      </c>
+      <c r="R52">
+        <v>41454</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>45907</v>
+      </c>
+      <c r="U52">
+        <v>3932</v>
+      </c>
+      <c r="V52">
+        <v>3413</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-2746</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
         <v>17</v>
       </c>
-      <c r="D42">
+      <c r="AA52">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41545</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>1394</v>
+      </c>
+      <c r="D53">
+        <v>11568</v>
+      </c>
+      <c r="E53">
+        <v>6539</v>
+      </c>
+      <c r="F53">
+        <v>12816</v>
+      </c>
+      <c r="G53">
+        <v>14109</v>
+      </c>
+      <c r="H53">
+        <v>81241</v>
+      </c>
+      <c r="I53">
+        <v>4899</v>
+      </c>
+      <c r="J53">
+        <v>12776</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>11704</v>
+      </c>
+      <c r="O53">
+        <v>33091</v>
+      </c>
+      <c r="P53">
+        <v>14382</v>
+      </c>
+      <c r="Q53">
+        <v>-1</v>
+      </c>
+      <c r="R53">
+        <v>41545</v>
+      </c>
+      <c r="S53">
+        <v>175000</v>
+      </c>
+      <c r="T53">
+        <v>48150</v>
+      </c>
+      <c r="U53">
+        <v>3931</v>
+      </c>
+      <c r="V53">
+        <v>2735</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-1778</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>112</v>
+      </c>
+      <c r="AA53">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41636</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>1840</v>
+      </c>
+      <c r="D54">
+        <v>12309</v>
+      </c>
+      <c r="E54">
+        <v>8013</v>
+      </c>
+      <c r="F54">
+        <v>5244</v>
+      </c>
+      <c r="G54">
+        <v>15763</v>
+      </c>
+      <c r="H54">
+        <v>83166</v>
+      </c>
+      <c r="I54">
+        <v>8484</v>
+      </c>
+      <c r="J54">
+        <v>11714</v>
+      </c>
+      <c r="K54">
+        <v>2149</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>-1046</v>
+      </c>
+      <c r="N54">
+        <v>15696</v>
+      </c>
+      <c r="O54">
+        <v>35870</v>
+      </c>
+      <c r="P54">
+        <v>15401</v>
+      </c>
+      <c r="Q54">
+        <v>466</v>
+      </c>
+      <c r="R54">
+        <v>41636</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>47296</v>
+      </c>
+      <c r="U54">
+        <v>4397</v>
+      </c>
+      <c r="V54">
+        <v>1212</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-237</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>136</v>
+      </c>
+      <c r="AA54">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41727</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>1917</v>
+      </c>
+      <c r="D55">
+        <v>11649</v>
+      </c>
+      <c r="E55">
+        <v>7588</v>
+      </c>
+      <c r="F55">
+        <v>5677</v>
+      </c>
+      <c r="G55">
+        <v>15046</v>
+      </c>
+      <c r="H55">
+        <v>82580</v>
+      </c>
+      <c r="I55">
+        <v>6482</v>
+      </c>
+      <c r="J55">
+        <v>10909</v>
+      </c>
+      <c r="K55">
+        <v>2316</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>15162</v>
+      </c>
+      <c r="O55">
+        <v>34940</v>
+      </c>
+      <c r="P55">
+        <v>15689</v>
+      </c>
+      <c r="Q55">
+        <v>-319</v>
+      </c>
+      <c r="R55">
+        <v>41727</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>47640</v>
+      </c>
+      <c r="U55">
+        <v>4078</v>
+      </c>
+      <c r="V55">
+        <v>2527</v>
+      </c>
+      <c r="W55">
+        <v>-1508</v>
+      </c>
+      <c r="X55">
+        <v>-2201</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>230</v>
+      </c>
+      <c r="AA55">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41818</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>2245</v>
+      </c>
+      <c r="D56">
+        <v>12466</v>
+      </c>
+      <c r="E56">
+        <v>7543</v>
+      </c>
+      <c r="F56">
+        <v>6102</v>
+      </c>
+      <c r="G56">
+        <v>15205</v>
+      </c>
+      <c r="H56">
+        <v>83723</v>
+      </c>
+      <c r="I56">
+        <v>6309</v>
+      </c>
+      <c r="J56">
+        <v>12920</v>
+      </c>
+      <c r="K56">
+        <v>1253</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>13351</v>
+      </c>
+      <c r="O56">
+        <v>35111</v>
+      </c>
+      <c r="P56">
+        <v>16136</v>
+      </c>
+      <c r="Q56">
+        <v>12</v>
+      </c>
+      <c r="R56">
+        <v>41818</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>48612</v>
+      </c>
+      <c r="U56">
+        <v>4090</v>
+      </c>
+      <c r="V56">
+        <v>2936</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-1652</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>16</v>
+      </c>
+      <c r="AA56">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41909</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>1499</v>
+      </c>
+      <c r="D57">
+        <v>12389</v>
+      </c>
+      <c r="E57">
+        <v>7274</v>
+      </c>
+      <c r="F57">
+        <v>5370</v>
+      </c>
+      <c r="G57">
+        <v>15169</v>
+      </c>
+      <c r="H57">
+        <v>84141</v>
+      </c>
+      <c r="I57">
+        <v>5371</v>
+      </c>
+      <c r="J57">
+        <v>12631</v>
+      </c>
+      <c r="K57">
+        <v>50</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>13292</v>
+      </c>
+      <c r="O57">
+        <v>35963</v>
+      </c>
+      <c r="P57">
+        <v>14795</v>
+      </c>
+      <c r="Q57">
+        <v>-669</v>
+      </c>
+      <c r="R57">
+        <v>41909</v>
+      </c>
+      <c r="S57">
+        <v>180000</v>
+      </c>
+      <c r="T57">
+        <v>48178</v>
+      </c>
+      <c r="U57">
+        <v>3421</v>
+      </c>
+      <c r="V57">
+        <v>3105</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-2620</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>13</v>
+      </c>
+      <c r="AA57">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42000</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>2182</v>
+      </c>
+      <c r="D58">
+        <v>13391</v>
+      </c>
+      <c r="E58">
+        <v>8591</v>
+      </c>
+      <c r="F58">
+        <v>5735</v>
+      </c>
+      <c r="G58">
+        <v>17240</v>
+      </c>
+      <c r="H58">
+        <v>87035</v>
+      </c>
+      <c r="I58">
+        <v>9039</v>
+      </c>
+      <c r="J58">
+        <v>12167</v>
+      </c>
+      <c r="K58">
+        <v>1075</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>-1098</v>
+      </c>
+      <c r="N58">
+        <v>16804</v>
+      </c>
+      <c r="O58">
+        <v>39242</v>
+      </c>
+      <c r="P58">
+        <v>16543</v>
+      </c>
+      <c r="Q58">
+        <v>1656</v>
+      </c>
+      <c r="R58">
+        <v>42000</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>47793</v>
+      </c>
+      <c r="U58">
+        <v>5077</v>
+      </c>
+      <c r="V58">
+        <v>1855</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>897</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42091</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>2108</v>
+      </c>
+      <c r="D59">
+        <v>12461</v>
+      </c>
+      <c r="E59">
+        <v>8161</v>
+      </c>
+      <c r="F59">
+        <v>5771</v>
+      </c>
+      <c r="G59">
+        <v>15646</v>
+      </c>
+      <c r="H59">
+        <v>85715</v>
+      </c>
+      <c r="I59">
+        <v>6813</v>
+      </c>
+      <c r="J59">
+        <v>12186</v>
+      </c>
+      <c r="K59">
+        <v>2006</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>13410</v>
+      </c>
+      <c r="O59">
+        <v>35978</v>
+      </c>
+      <c r="P59">
+        <v>14957</v>
+      </c>
+      <c r="Q59">
+        <v>-1332</v>
+      </c>
+      <c r="R59">
+        <v>42091</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>49737</v>
+      </c>
+      <c r="U59">
+        <v>3745</v>
+      </c>
+      <c r="V59">
+        <v>2918</v>
+      </c>
+      <c r="W59">
+        <v>-1948</v>
+      </c>
+      <c r="X59">
+        <v>-3242</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>81</v>
+      </c>
+      <c r="AA59">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42182</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>2483</v>
+      </c>
+      <c r="D60">
+        <v>13101</v>
+      </c>
+      <c r="E60">
+        <v>8012</v>
+      </c>
+      <c r="F60">
+        <v>6438</v>
+      </c>
+      <c r="G60">
+        <v>16512</v>
+      </c>
+      <c r="H60">
+        <v>87367</v>
+      </c>
+      <c r="I60">
+        <v>7773</v>
+      </c>
+      <c r="J60">
+        <v>12154</v>
+      </c>
+      <c r="K60">
+        <v>2405</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>14826</v>
+      </c>
+      <c r="O60">
+        <v>36860</v>
+      </c>
+      <c r="P60">
+        <v>15273</v>
+      </c>
+      <c r="Q60">
+        <v>730</v>
+      </c>
+      <c r="R60">
+        <v>42182</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>50507</v>
+      </c>
+      <c r="U60">
+        <v>4475</v>
+      </c>
+      <c r="V60">
+        <v>2808</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>-896</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>62</v>
+      </c>
+      <c r="AA60">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42280</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>1609</v>
+      </c>
+      <c r="D61">
+        <v>13512</v>
+      </c>
+      <c r="E61">
+        <v>7456</v>
+      </c>
+      <c r="F61">
+        <v>6222</v>
+      </c>
+      <c r="G61">
+        <v>16758</v>
+      </c>
+      <c r="H61">
+        <v>88182</v>
+      </c>
+      <c r="I61">
+        <v>5504</v>
+      </c>
+      <c r="J61">
+        <v>12773</v>
+      </c>
+      <c r="K61">
+        <v>2430</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>16334</v>
+      </c>
+      <c r="O61">
+        <v>39527</v>
+      </c>
+      <c r="P61">
+        <v>17336</v>
+      </c>
+      <c r="Q61">
+        <v>-206</v>
+      </c>
+      <c r="R61">
+        <v>42280</v>
+      </c>
+      <c r="S61">
+        <v>185000</v>
+      </c>
+      <c r="T61">
+        <v>48655</v>
+      </c>
+      <c r="U61">
+        <v>4269</v>
+      </c>
+      <c r="V61">
+        <v>3328</v>
+      </c>
+      <c r="W61">
+        <v>-1115</v>
+      </c>
+      <c r="X61">
+        <v>-2273</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>23</v>
+      </c>
+      <c r="AA61">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42371</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>2880</v>
+      </c>
+      <c r="D62">
+        <v>15244</v>
+      </c>
+      <c r="E62">
+        <v>10298</v>
+      </c>
+      <c r="F62">
+        <v>6621</v>
+      </c>
+      <c r="G62">
+        <v>17768</v>
+      </c>
+      <c r="H62">
+        <v>90121</v>
+      </c>
+      <c r="I62">
+        <v>9317</v>
+      </c>
+      <c r="J62">
+        <v>12965</v>
+      </c>
+      <c r="K62">
+        <v>4339</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>-564</v>
+      </c>
+      <c r="N62">
+        <v>18796</v>
+      </c>
+      <c r="O62">
+        <v>41923</v>
+      </c>
+      <c r="P62">
+        <v>18915</v>
+      </c>
+      <c r="Q62">
+        <v>32</v>
+      </c>
+      <c r="R62">
+        <v>42371</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>48198</v>
+      </c>
+      <c r="U62">
+        <v>4301</v>
+      </c>
+      <c r="V62">
+        <v>2456</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-562</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42462</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>2143</v>
+      </c>
+      <c r="D63">
+        <v>12969</v>
+      </c>
+      <c r="E63">
+        <v>8874</v>
+      </c>
+      <c r="F63">
+        <v>6252</v>
+      </c>
+      <c r="G63">
+        <v>16999</v>
+      </c>
+      <c r="H63">
+        <v>90264</v>
+      </c>
+      <c r="I63">
+        <v>7232</v>
+      </c>
+      <c r="J63">
+        <v>15367</v>
+      </c>
+      <c r="K63">
+        <v>3144</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>17073</v>
+      </c>
+      <c r="O63">
+        <v>42254</v>
+      </c>
+      <c r="P63">
+        <v>21122</v>
+      </c>
+      <c r="Q63">
+        <v>714</v>
+      </c>
+      <c r="R63">
+        <v>42462</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>48010</v>
+      </c>
+      <c r="U63">
+        <v>5015</v>
+      </c>
+      <c r="V63">
+        <v>3529</v>
+      </c>
+      <c r="W63">
+        <v>-1168</v>
+      </c>
+      <c r="X63">
+        <v>-1642</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-400</v>
+      </c>
+      <c r="AA63">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42553</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>2597</v>
+      </c>
+      <c r="D64">
+        <v>14277</v>
+      </c>
+      <c r="E64">
+        <v>8958</v>
+      </c>
+      <c r="F64">
+        <v>7076</v>
+      </c>
+      <c r="G64">
+        <v>17617</v>
+      </c>
+      <c r="H64">
+        <v>90914</v>
+      </c>
+      <c r="I64">
+        <v>8703</v>
+      </c>
+      <c r="J64">
+        <v>15129</v>
+      </c>
+      <c r="K64">
+        <v>2223</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>18072</v>
+      </c>
+      <c r="O64">
+        <v>42768</v>
+      </c>
+      <c r="P64">
+        <v>20441</v>
+      </c>
+      <c r="Q64">
+        <v>212</v>
+      </c>
+      <c r="R64">
+        <v>42553</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>48146</v>
+      </c>
+      <c r="U64">
+        <v>5227</v>
+      </c>
+      <c r="V64">
+        <v>3630</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-2116</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42644</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>1771</v>
+      </c>
+      <c r="D65">
+        <v>13142</v>
+      </c>
+      <c r="E65">
+        <v>8305</v>
+      </c>
+      <c r="F65">
+        <v>5819</v>
+      </c>
+      <c r="G65">
+        <v>16966</v>
+      </c>
+      <c r="H65">
+        <v>92033</v>
+      </c>
+      <c r="I65">
+        <v>6860</v>
+      </c>
+      <c r="J65">
+        <v>16483</v>
+      </c>
+      <c r="K65">
+        <v>1521</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>16842</v>
+      </c>
+      <c r="O65">
+        <v>44710</v>
+      </c>
+      <c r="P65">
+        <v>20170</v>
+      </c>
+      <c r="Q65">
+        <v>-923</v>
+      </c>
+      <c r="R65">
+        <v>42644</v>
+      </c>
+      <c r="S65">
+        <v>195000</v>
+      </c>
+      <c r="T65">
+        <v>47323</v>
+      </c>
+      <c r="U65">
+        <v>4610</v>
+      </c>
+      <c r="V65">
+        <v>3521</v>
+      </c>
+      <c r="W65">
+        <v>-1145</v>
+      </c>
+      <c r="X65">
+        <v>-2900</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-450</v>
+      </c>
+      <c r="AA65">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>2479</v>
+      </c>
+      <c r="D66">
+        <v>14784</v>
+      </c>
+      <c r="E66">
+        <v>9878</v>
+      </c>
+      <c r="F66">
+        <v>6378</v>
+      </c>
+      <c r="G66">
+        <v>16665</v>
+      </c>
+      <c r="H66">
+        <v>91576</v>
+      </c>
+      <c r="I66">
+        <v>9955</v>
+      </c>
+      <c r="J66">
+        <v>14792</v>
+      </c>
+      <c r="K66">
+        <v>2256</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>-194</v>
+      </c>
+      <c r="N66">
+        <v>19317</v>
+      </c>
+      <c r="O66">
+        <v>44399</v>
+      </c>
+      <c r="P66">
+        <v>20490</v>
+      </c>
+      <c r="Q66">
+        <v>-689</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>47177</v>
+      </c>
+      <c r="U66">
+        <v>3736</v>
+      </c>
+      <c r="V66">
+        <v>1445</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-987</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42826</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>2388</v>
+      </c>
+      <c r="D67">
+        <v>13336</v>
+      </c>
+      <c r="E67">
+        <v>9293</v>
+      </c>
+      <c r="F67">
+        <v>6367</v>
+      </c>
+      <c r="G67">
+        <v>16270</v>
+      </c>
+      <c r="H67">
+        <v>91807</v>
+      </c>
+      <c r="I67">
+        <v>8025</v>
+      </c>
+      <c r="J67">
+        <v>16788</v>
+      </c>
+      <c r="K67">
+        <v>2446</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>17365</v>
+      </c>
+      <c r="O67">
+        <v>44540</v>
+      </c>
+      <c r="P67">
+        <v>21653</v>
+      </c>
+      <c r="Q67">
+        <v>-146</v>
+      </c>
+      <c r="R67">
+        <v>42826</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>47267</v>
+      </c>
+      <c r="U67">
+        <v>3800</v>
+      </c>
+      <c r="V67">
+        <v>3228</v>
+      </c>
+      <c r="W67">
+        <v>-1237</v>
+      </c>
+      <c r="X67">
+        <v>-2062</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-557</v>
+      </c>
+      <c r="AA67">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42917</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>2366</v>
+      </c>
+      <c r="D68">
+        <v>14238</v>
+      </c>
+      <c r="E68">
+        <v>9636</v>
+      </c>
+      <c r="F68">
+        <v>6521</v>
+      </c>
+      <c r="G68">
+        <v>17151</v>
+      </c>
+      <c r="H68">
+        <v>92752</v>
+      </c>
+      <c r="I68">
+        <v>9374</v>
+      </c>
+      <c r="J68">
+        <v>18849</v>
+      </c>
+      <c r="K68">
+        <v>1411</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>17094</v>
+      </c>
+      <c r="O68">
+        <v>46701</v>
+      </c>
+      <c r="P68">
+        <v>22187</v>
+      </c>
+      <c r="Q68">
+        <v>503</v>
+      </c>
+      <c r="R68">
+        <v>42917</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>46051</v>
+      </c>
+      <c r="U68">
+        <v>4336</v>
+      </c>
+      <c r="V68">
+        <v>4100</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-2743</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>1747</v>
+      </c>
+      <c r="D69">
+        <v>12779</v>
+      </c>
+      <c r="E69">
+        <v>7424</v>
+      </c>
+      <c r="F69">
+        <v>5680</v>
+      </c>
+      <c r="G69">
+        <v>15889</v>
+      </c>
+      <c r="H69">
+        <v>95789</v>
+      </c>
+      <c r="I69">
+        <v>6305</v>
+      </c>
+      <c r="J69">
+        <v>19119</v>
+      </c>
+      <c r="K69">
+        <v>2772</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>19595</v>
+      </c>
+      <c r="O69">
+        <v>49637</v>
+      </c>
+      <c r="P69">
+        <v>25291</v>
+      </c>
+      <c r="Q69">
+        <v>-364</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>199000</v>
+      </c>
+      <c r="T69">
+        <v>46152</v>
+      </c>
+      <c r="U69">
+        <v>4017</v>
+      </c>
+      <c r="V69">
+        <v>3570</v>
+      </c>
+      <c r="W69">
+        <v>-1208</v>
+      </c>
+      <c r="X69">
+        <v>-3167</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>557</v>
+      </c>
+      <c r="AA69">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43099</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>4423</v>
+      </c>
+      <c r="D70">
+        <v>15351</v>
+      </c>
+      <c r="E70">
+        <v>9886</v>
+      </c>
+      <c r="F70">
+        <v>6622</v>
+      </c>
+      <c r="G70">
+        <v>17274</v>
+      </c>
+      <c r="H70">
+        <v>97734</v>
+      </c>
+      <c r="I70">
+        <v>9574</v>
+      </c>
+      <c r="J70">
+        <v>20082</v>
+      </c>
+      <c r="K70">
+        <v>3911</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>-1330</v>
+      </c>
+      <c r="N70">
+        <v>19875</v>
+      </c>
+      <c r="O70">
+        <v>49509</v>
+      </c>
+      <c r="P70">
+        <v>26091</v>
+      </c>
+      <c r="Q70">
+        <v>631</v>
+      </c>
+      <c r="R70">
+        <v>43099</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>48225</v>
+      </c>
+      <c r="U70">
+        <v>4677</v>
+      </c>
+      <c r="V70">
+        <v>2237</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>-584</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>2937</v>
+      </c>
+      <c r="D71">
+        <v>14548</v>
+      </c>
+      <c r="E71">
+        <v>9678</v>
+      </c>
+      <c r="F71">
+        <v>7007</v>
+      </c>
+      <c r="G71">
+        <v>16808</v>
+      </c>
+      <c r="H71">
+        <v>97943</v>
+      </c>
+      <c r="I71">
+        <v>9022</v>
+      </c>
+      <c r="J71">
+        <v>18766</v>
+      </c>
+      <c r="K71">
+        <v>4151</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>19728</v>
+      </c>
+      <c r="O71">
+        <v>48142</v>
+      </c>
+      <c r="P71">
+        <v>24684</v>
+      </c>
+      <c r="Q71">
+        <v>-500</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>49801</v>
+      </c>
+      <c r="U71">
+        <v>4179</v>
+      </c>
+      <c r="V71">
+        <v>4526</v>
+      </c>
+      <c r="W71">
+        <v>-1266</v>
+      </c>
+      <c r="X71">
+        <v>-2298</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>2916</v>
+      </c>
+      <c r="D72">
+        <v>15229</v>
+      </c>
+      <c r="E72">
+        <v>10071</v>
+      </c>
+      <c r="F72">
+        <v>6881</v>
+      </c>
+      <c r="G72">
+        <v>17729</v>
+      </c>
+      <c r="H72">
+        <v>98792</v>
+      </c>
+      <c r="I72">
+        <v>9763</v>
+      </c>
+      <c r="J72">
+        <v>17681</v>
+      </c>
+      <c r="K72">
+        <v>3233</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>20214</v>
+      </c>
+      <c r="O72">
+        <v>47584</v>
+      </c>
+      <c r="P72">
+        <v>23673</v>
+      </c>
+      <c r="Q72">
+        <v>136</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>51208</v>
+      </c>
+      <c r="U72">
+        <v>4326</v>
+      </c>
+      <c r="V72">
+        <v>3679</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-2099</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+      <c r="AA72">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43372</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>2322</v>
+      </c>
+      <c r="D73">
+        <v>14306</v>
+      </c>
+      <c r="E73">
+        <v>8076</v>
+      </c>
+      <c r="F73">
+        <v>6198</v>
+      </c>
+      <c r="G73">
+        <v>16825</v>
+      </c>
+      <c r="H73">
+        <v>98598</v>
+      </c>
+      <c r="I73">
+        <v>6503</v>
+      </c>
+      <c r="J73">
+        <v>17084</v>
+      </c>
+      <c r="K73">
+        <v>1005</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>17860</v>
+      </c>
+      <c r="O73">
+        <v>44643</v>
+      </c>
+      <c r="P73">
+        <v>20874</v>
+      </c>
+      <c r="Q73">
+        <v>-176</v>
+      </c>
+      <c r="R73">
+        <v>43372</v>
+      </c>
+      <c r="S73">
+        <v>201000</v>
+      </c>
+      <c r="T73">
+        <v>53955</v>
+      </c>
+      <c r="U73">
+        <v>4150</v>
+      </c>
+      <c r="V73">
+        <v>3853</v>
+      </c>
+      <c r="W73">
+        <v>-1249</v>
+      </c>
+      <c r="X73">
+        <v>-3862</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+      <c r="AA73">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43463</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>2788</v>
+      </c>
+      <c r="D74">
+        <v>15303</v>
+      </c>
+      <c r="E74">
+        <v>10123</v>
+      </c>
+      <c r="F74">
+        <v>6302</v>
+      </c>
+      <c r="G74">
+        <v>17537</v>
+      </c>
+      <c r="H74">
+        <v>99941</v>
+      </c>
+      <c r="I74">
+        <v>10696</v>
+      </c>
+      <c r="J74">
+        <v>17176</v>
+      </c>
+      <c r="K74">
+        <v>699</v>
+      </c>
+      <c r="L74">
+        <v>-302</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>17619</v>
+      </c>
+      <c r="O74">
+        <v>44424</v>
+      </c>
+      <c r="P74">
+        <v>20665</v>
+      </c>
+      <c r="Q74">
+        <v>308</v>
+      </c>
+      <c r="R74">
+        <v>43463</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>55517</v>
+      </c>
+      <c r="U74">
+        <v>4455</v>
+      </c>
+      <c r="V74">
+        <v>2099</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-411</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+      <c r="AA74">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43554</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>14593</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>34277</v>
+      </c>
+      <c r="H75">
+        <v>214342</v>
+      </c>
+      <c r="I75">
+        <v>20503</v>
+      </c>
+      <c r="J75">
+        <v>37803</v>
+      </c>
+      <c r="K75">
+        <v>1396</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>44376</v>
+      </c>
+      <c r="O75">
+        <v>108900</v>
+      </c>
+      <c r="P75">
+        <v>56961</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>43554</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>105442</v>
+      </c>
+      <c r="U75">
+        <v>10108</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43645</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>1760</v>
+      </c>
+      <c r="D76">
+        <v>20262</v>
+      </c>
+      <c r="E76">
+        <v>15673</v>
+      </c>
+      <c r="F76">
+        <v>7425</v>
+      </c>
+      <c r="G76">
+        <v>31370</v>
+      </c>
+      <c r="H76">
+        <v>209475</v>
+      </c>
+      <c r="I76">
+        <v>17647</v>
+      </c>
+      <c r="J76">
+        <v>36311</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>44593</v>
+      </c>
+      <c r="O76">
+        <v>104222</v>
+      </c>
+      <c r="P76">
+        <v>58234</v>
+      </c>
+      <c r="Q76">
+        <v>-2865</v>
+      </c>
+      <c r="R76">
+        <v>43645</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>105253</v>
+      </c>
+      <c r="U76">
+        <v>6728</v>
+      </c>
+      <c r="V76">
+        <v>-1393</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-342</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43736</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>1054</v>
+      </c>
+      <c r="D77">
+        <v>19118</v>
+      </c>
+      <c r="E77">
+        <v>12587</v>
+      </c>
+      <c r="F77">
+        <v>7274</v>
+      </c>
+      <c r="G77">
+        <v>28124</v>
+      </c>
+      <c r="H77">
+        <v>193984</v>
+      </c>
+      <c r="I77">
+        <v>13778</v>
+      </c>
+      <c r="J77">
+        <v>38129</v>
+      </c>
+      <c r="K77">
+        <v>5342</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>31341</v>
+      </c>
+      <c r="O77">
+        <v>91132</v>
+      </c>
+      <c r="P77">
+        <v>47137</v>
+      </c>
+      <c r="Q77">
+        <v>-1902</v>
+      </c>
+      <c r="R77">
+        <v>43736</v>
+      </c>
+      <c r="S77">
+        <v>223000</v>
+      </c>
+      <c r="T77">
+        <v>102852</v>
+      </c>
+      <c r="U77">
+        <v>5418</v>
+      </c>
+      <c r="V77">
+        <v>2020</v>
+      </c>
+      <c r="W77">
+        <v>-1585</v>
+      </c>
+      <c r="X77">
+        <v>-13444</v>
+      </c>
+      <c r="Y77">
+        <v>132</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43827</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>2107</v>
+      </c>
+      <c r="D78">
+        <v>20877</v>
+      </c>
+      <c r="E78">
+        <v>17100</v>
+      </c>
+      <c r="F78">
+        <v>7843</v>
+      </c>
+      <c r="G78">
+        <v>27776</v>
+      </c>
+      <c r="H78">
+        <v>200948</v>
+      </c>
+      <c r="I78">
+        <v>18920</v>
+      </c>
+      <c r="J78">
+        <v>38057</v>
+      </c>
+      <c r="K78">
+        <v>6534</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>-46</v>
+      </c>
+      <c r="N78">
+        <v>34797</v>
+      </c>
+      <c r="O78">
+        <v>97146</v>
+      </c>
+      <c r="P78">
+        <v>51932</v>
+      </c>
+      <c r="Q78">
+        <v>1419</v>
+      </c>
+      <c r="R78">
+        <v>43827</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>103802</v>
+      </c>
+      <c r="U78">
+        <v>6833</v>
+      </c>
+      <c r="V78">
+        <v>1611</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>1117</v>
+      </c>
+      <c r="Y78">
+        <v>3022</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>460</v>
+      </c>
+      <c r="D79">
+        <v>18044</v>
+      </c>
+      <c r="E79">
+        <v>14532</v>
+      </c>
+      <c r="F79">
+        <v>6089</v>
+      </c>
+      <c r="G79">
+        <v>33274</v>
+      </c>
+      <c r="H79">
+        <v>206294</v>
+      </c>
+      <c r="I79">
+        <v>17048</v>
+      </c>
+      <c r="J79">
+        <v>42770</v>
+      </c>
+      <c r="K79">
+        <v>8483</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>35473</v>
+      </c>
+      <c r="O79">
+        <v>102321</v>
+      </c>
+      <c r="P79">
+        <v>59555</v>
+      </c>
+      <c r="Q79">
+        <v>7504</v>
+      </c>
+      <c r="R79">
+        <v>43918</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>103973</v>
+      </c>
+      <c r="U79">
+        <v>14339</v>
+      </c>
+      <c r="V79">
+        <v>3180</v>
+      </c>
+      <c r="W79">
+        <v>-1587</v>
+      </c>
+      <c r="X79">
+        <v>5499</v>
+      </c>
+      <c r="Y79">
+        <v>3251</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>-4721</v>
+      </c>
+      <c r="D80">
+        <v>11779</v>
+      </c>
+      <c r="E80">
+        <v>12622</v>
+      </c>
+      <c r="F80">
+        <v>3883</v>
+      </c>
+      <c r="G80">
+        <v>41330</v>
+      </c>
+      <c r="H80">
+        <v>207649</v>
+      </c>
+      <c r="I80">
+        <v>16144</v>
+      </c>
+      <c r="J80">
+        <v>54197</v>
+      </c>
+      <c r="K80">
+        <v>6735</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>30917</v>
+      </c>
+      <c r="O80">
+        <v>108024</v>
+      </c>
+      <c r="P80">
+        <v>68313</v>
+      </c>
+      <c r="Q80">
+        <v>8776</v>
+      </c>
+      <c r="R80">
+        <v>44009</v>
+      </c>
+      <c r="S80">
+        <v>210000</v>
+      </c>
+      <c r="T80">
+        <v>99625</v>
+      </c>
+      <c r="U80">
+        <v>23115</v>
+      </c>
+      <c r="V80">
+        <v>1160</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>8303</v>
+      </c>
+      <c r="Y80">
+        <v>3050</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>-4721</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>-710</v>
+      </c>
+      <c r="D81">
+        <v>14707</v>
+      </c>
+      <c r="E81">
+        <v>10873</v>
+      </c>
+      <c r="F81">
+        <v>3694</v>
+      </c>
+      <c r="G81">
+        <v>35251</v>
+      </c>
+      <c r="H81">
+        <v>201549</v>
+      </c>
+      <c r="I81">
+        <v>12663</v>
+      </c>
+      <c r="J81">
+        <v>52917</v>
+      </c>
+      <c r="K81">
+        <v>2023</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>26628</v>
+      </c>
+      <c r="O81">
+        <v>104037</v>
+      </c>
+      <c r="P81">
+        <v>62323</v>
+      </c>
+      <c r="Q81">
+        <v>-5200</v>
+      </c>
+      <c r="R81">
+        <v>44107</v>
+      </c>
+      <c r="S81">
+        <v>203000</v>
+      </c>
+      <c r="T81">
+        <v>97512</v>
+      </c>
+      <c r="U81">
+        <v>17914</v>
+      </c>
+      <c r="V81">
+        <v>1667</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>-6439</v>
+      </c>
+      <c r="Y81">
+        <v>2911</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>-710</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44198</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
+        <v>17</v>
+      </c>
+      <c r="D82">
         <v>16249</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>14051</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>4474</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>34874</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>201888</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>16846</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>52878</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>1846</v>
       </c>
-      <c r="L42">
+      <c r="L82">
         <v>-179</v>
       </c>
-      <c r="M42">
+      <c r="M82">
         <v>-139</v>
       </c>
-      <c r="N42">
+      <c r="N82">
         <v>26546</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>103830</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>58275</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-842</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44198</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>175000</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>98058</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>17068</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>84</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>-333</v>
       </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
         <v>17</v>
       </c>
     </row>
